--- a/APPSHEET/EXCEL/caja_fec_usu_franco.xlsx
+++ b/APPSHEET/EXCEL/caja_fec_usu_franco.xlsx
@@ -198,7 +198,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8612</t>
+            <t xml:space="preserve">2875</t>
           </r>
         </is>
       </c>
@@ -207,7 +207,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/15</t>
+            <t xml:space="preserve">2023/02/21</t>
           </r>
         </is>
       </c>
@@ -216,7 +216,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">00:07:17</t>
+            <t xml:space="preserve">05:51:52</t>
           </r>
         </is>
       </c>
@@ -225,7 +225,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6-(00:07)</t>
+            <t xml:space="preserve">LUCY-(M)</t>
           </r>
         </is>
       </c>
@@ -234,7 +234,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MIERCOLES</t>
+            <t xml:space="preserve">MARTES</t>
           </r>
         </is>
       </c>
@@ -243,7 +243,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">780000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -252,7 +252,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">50000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -261,7 +261,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">730000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -272,7 +272,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8622</t>
+            <t xml:space="preserve">2811</t>
           </r>
         </is>
       </c>
@@ -281,7 +281,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/15</t>
+            <t xml:space="preserve">2023/02/20</t>
           </r>
         </is>
       </c>
@@ -290,7 +290,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">00:12:42</t>
+            <t xml:space="preserve">05:55:35</t>
           </r>
         </is>
       </c>
@@ -299,7 +299,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5-(00:12)</t>
+            <t xml:space="preserve">LUCY-(M)</t>
           </r>
         </is>
       </c>
@@ -308,7 +308,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MIERCOLES</t>
+            <t xml:space="preserve">LUNES</t>
           </r>
         </is>
       </c>
@@ -317,7 +317,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1070000</t>
+            <t xml:space="preserve">453000</t>
           </r>
         </is>
       </c>
@@ -326,7 +326,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">60000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -335,7 +335,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1010000</t>
+            <t xml:space="preserve">453000</t>
           </r>
         </is>
       </c>
@@ -346,7 +346,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8631</t>
+            <t xml:space="preserve">2826</t>
           </r>
         </is>
       </c>
@@ -355,7 +355,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/15</t>
+            <t xml:space="preserve">2023/02/20</t>
           </r>
         </is>
       </c>
@@ -364,7 +364,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">00:20:43</t>
+            <t xml:space="preserve">13:55:53</t>
           </r>
         </is>
       </c>
@@ -373,7 +373,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6-(00:20)</t>
+            <t xml:space="preserve">CARLOS-(T)</t>
           </r>
         </is>
       </c>
@@ -382,7 +382,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MIERCOLES</t>
+            <t xml:space="preserve">LUNES</t>
           </r>
         </is>
       </c>
@@ -391,7 +391,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">780000</t>
+            <t xml:space="preserve">1547000</t>
           </r>
         </is>
       </c>
@@ -400,7 +400,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">50000</t>
+            <t xml:space="preserve">105000</t>
           </r>
         </is>
       </c>
@@ -409,7 +409,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">730000</t>
+            <t xml:space="preserve">1442000</t>
           </r>
         </is>
       </c>
@@ -420,7 +420,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8645</t>
+            <t xml:space="preserve">2865</t>
           </r>
         </is>
       </c>
@@ -429,7 +429,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/15</t>
+            <t xml:space="preserve">2023/02/20</t>
           </r>
         </is>
       </c>
@@ -438,7 +438,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">00:52:06</t>
+            <t xml:space="preserve">22:03:17</t>
           </r>
         </is>
       </c>
@@ -447,7 +447,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5-(00:52)</t>
+            <t xml:space="preserve">JUAN-(N)</t>
           </r>
         </is>
       </c>
@@ -456,7 +456,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MIERCOLES</t>
+            <t xml:space="preserve">LUNES</t>
           </r>
         </is>
       </c>
@@ -465,7 +465,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1070000</t>
+            <t xml:space="preserve">959000</t>
           </r>
         </is>
       </c>
@@ -474,7 +474,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">60000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -483,7 +483,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1010000</t>
+            <t xml:space="preserve">959000</t>
           </r>
         </is>
       </c>
@@ -494,7 +494,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8544</t>
+            <t xml:space="preserve">2728</t>
           </r>
         </is>
       </c>
@@ -503,7 +503,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/14</t>
+            <t xml:space="preserve">2023/02/19</t>
           </r>
         </is>
       </c>
@@ -512,7 +512,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">04:11:55</t>
+            <t xml:space="preserve">06:10:47</t>
           </r>
         </is>
       </c>
@@ -521,7 +521,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(04:11)</t>
+            <t xml:space="preserve">LUCY-(M)</t>
           </r>
         </is>
       </c>
@@ -530,7 +530,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MARTES</t>
+            <t xml:space="preserve">DOMINGO</t>
           </r>
         </is>
       </c>
@@ -539,7 +539,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">40000</t>
+            <t xml:space="preserve">1121000</t>
           </r>
         </is>
       </c>
@@ -557,7 +557,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">40000</t>
+            <t xml:space="preserve">1121000</t>
           </r>
         </is>
       </c>
@@ -568,7 +568,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8569</t>
+            <t xml:space="preserve">2755</t>
           </r>
         </is>
       </c>
@@ -577,7 +577,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/14</t>
+            <t xml:space="preserve">2023/02/19</t>
           </r>
         </is>
       </c>
@@ -586,7 +586,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">14:00:31</t>
+            <t xml:space="preserve">13:48:11</t>
           </r>
         </is>
       </c>
@@ -595,7 +595,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(T)</t>
+            <t xml:space="preserve">CARLOS-(T)</t>
           </r>
         </is>
       </c>
@@ -604,7 +604,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MARTES</t>
+            <t xml:space="preserve">DOMINGO</t>
           </r>
         </is>
       </c>
@@ -613,7 +613,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">3376000</t>
           </r>
         </is>
       </c>
@@ -622,7 +622,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">255000</t>
           </r>
         </is>
       </c>
@@ -631,7 +631,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">3121000</t>
           </r>
         </is>
       </c>
@@ -642,7 +642,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8570</t>
+            <t xml:space="preserve">2788</t>
           </r>
         </is>
       </c>
@@ -651,7 +651,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/14</t>
+            <t xml:space="preserve">2023/02/19</t>
           </r>
         </is>
       </c>
@@ -660,7 +660,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">19:47:47</t>
+            <t xml:space="preserve">21:55:33</t>
           </r>
         </is>
       </c>
@@ -669,7 +669,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6-(19:47)</t>
+            <t xml:space="preserve">JUAN-(N)</t>
           </r>
         </is>
       </c>
@@ -678,7 +678,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MARTES</t>
+            <t xml:space="preserve">DOMINGO</t>
           </r>
         </is>
       </c>
@@ -687,7 +687,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1022000</t>
+            <t xml:space="preserve">526000</t>
           </r>
         </is>
       </c>
@@ -705,7 +705,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1022000</t>
+            <t xml:space="preserve">526000</t>
           </r>
         </is>
       </c>
@@ -716,7 +716,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8600</t>
+            <t xml:space="preserve">2629</t>
           </r>
         </is>
       </c>
@@ -725,7 +725,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/14</t>
+            <t xml:space="preserve">2023/02/18</t>
           </r>
         </is>
       </c>
@@ -734,7 +734,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">22:18:33</t>
+            <t xml:space="preserve">06:00:35</t>
           </r>
         </is>
       </c>
@@ -743,7 +743,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5-(N)</t>
+            <t xml:space="preserve">JUAN-(M)</t>
           </r>
         </is>
       </c>
@@ -752,7 +752,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MARTES</t>
+            <t xml:space="preserve">SABADO</t>
           </r>
         </is>
       </c>
@@ -761,7 +761,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1337000</t>
+            <t xml:space="preserve">435000</t>
           </r>
         </is>
       </c>
@@ -779,7 +779,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1337000</t>
+            <t xml:space="preserve">435000</t>
           </r>
         </is>
       </c>
@@ -790,7 +790,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8484</t>
+            <t xml:space="preserve">2642</t>
           </r>
         </is>
       </c>
@@ -799,7 +799,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/13</t>
+            <t xml:space="preserve">2023/02/18</t>
           </r>
         </is>
       </c>
@@ -808,7 +808,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">06:00:33</t>
+            <t xml:space="preserve">13:59:42</t>
           </r>
         </is>
       </c>
@@ -817,7 +817,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(M)</t>
+            <t xml:space="preserve">LUCY-(T)</t>
           </r>
         </is>
       </c>
@@ -826,7 +826,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">LUNES</t>
+            <t xml:space="preserve">SABADO</t>
           </r>
         </is>
       </c>
@@ -835,7 +835,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">671000</t>
+            <t xml:space="preserve">1820000</t>
           </r>
         </is>
       </c>
@@ -844,7 +844,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">55000</t>
+            <t xml:space="preserve">75000</t>
           </r>
         </is>
       </c>
@@ -853,7 +853,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">616000</t>
+            <t xml:space="preserve">1745000</t>
           </r>
         </is>
       </c>
@@ -864,7 +864,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8503</t>
+            <t xml:space="preserve">2681</t>
           </r>
         </is>
       </c>
@@ -873,7 +873,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/13</t>
+            <t xml:space="preserve">2023/02/18</t>
           </r>
         </is>
       </c>
@@ -882,7 +882,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13:58:44</t>
+            <t xml:space="preserve">21:58:37</t>
           </r>
         </is>
       </c>
@@ -891,7 +891,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(T)</t>
+            <t xml:space="preserve">CARLOS-(N)</t>
           </r>
         </is>
       </c>
@@ -900,7 +900,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">LUNES</t>
+            <t xml:space="preserve">SABADO</t>
           </r>
         </is>
       </c>
@@ -909,7 +909,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1789000</t>
+            <t xml:space="preserve">1422000</t>
           </r>
         </is>
       </c>
@@ -918,7 +918,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">110000</t>
+            <t xml:space="preserve">80000</t>
           </r>
         </is>
       </c>
@@ -927,7 +927,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1679000</t>
+            <t xml:space="preserve">1342000</t>
           </r>
         </is>
       </c>
@@ -938,7 +938,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8423</t>
+            <t xml:space="preserve">2548</t>
           </r>
         </is>
       </c>
@@ -947,7 +947,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/12</t>
+            <t xml:space="preserve">2023/02/17</t>
           </r>
         </is>
       </c>
@@ -956,7 +956,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">06:01:48</t>
+            <t xml:space="preserve">05:59:28</t>
           </r>
         </is>
       </c>
@@ -965,7 +965,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(M)</t>
+            <t xml:space="preserve">JUAN-(M)</t>
           </r>
         </is>
       </c>
@@ -974,7 +974,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">DOMINGO</t>
+            <t xml:space="preserve">VIERNES</t>
           </r>
         </is>
       </c>
@@ -983,7 +983,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1830000</t>
+            <t xml:space="preserve">519000</t>
           </r>
         </is>
       </c>
@@ -992,7 +992,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -1001,7 +1001,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1825000</t>
+            <t xml:space="preserve">519000</t>
           </r>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8473</t>
+            <t xml:space="preserve">2564</t>
           </r>
         </is>
       </c>
@@ -1021,7 +1021,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/12</t>
+            <t xml:space="preserve">2023/02/17</t>
           </r>
         </is>
       </c>
@@ -1030,7 +1030,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">21:59:44</t>
+            <t xml:space="preserve">13:59:39</t>
           </r>
         </is>
       </c>
@@ -1039,7 +1039,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
+            <t xml:space="preserve">LUCY-(T)</t>
           </r>
         </is>
       </c>
@@ -1048,7 +1048,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">DOMINGO</t>
+            <t xml:space="preserve">VIERNES</t>
           </r>
         </is>
       </c>
@@ -1057,7 +1057,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2458000</t>
+            <t xml:space="preserve">1830000</t>
           </r>
         </is>
       </c>
@@ -1066,7 +1066,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">180000</t>
+            <t xml:space="preserve">75000</t>
           </r>
         </is>
       </c>
@@ -1075,7 +1075,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2278000</t>
+            <t xml:space="preserve">1755000</t>
           </r>
         </is>
       </c>
@@ -1086,7 +1086,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8301</t>
+            <t xml:space="preserve">2605</t>
           </r>
         </is>
       </c>
@@ -1095,7 +1095,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/11</t>
+            <t xml:space="preserve">2023/02/17</t>
           </r>
         </is>
       </c>
@@ -1104,7 +1104,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">06:02:45</t>
+            <t xml:space="preserve">21:54:47</t>
           </r>
         </is>
       </c>
@@ -1113,7 +1113,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(M)</t>
+            <t xml:space="preserve">CARLOS-(N)</t>
           </r>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SABADO</t>
+            <t xml:space="preserve">VIERNES</t>
           </r>
         </is>
       </c>
@@ -1131,7 +1131,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">800000</t>
+            <t xml:space="preserve">1335000</t>
           </r>
         </is>
       </c>
@@ -1140,7 +1140,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">180000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -1149,7 +1149,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">620000</t>
+            <t xml:space="preserve">1335000</t>
           </r>
         </is>
       </c>
@@ -1160,7 +1160,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8327</t>
+            <t xml:space="preserve">2484</t>
           </r>
         </is>
       </c>
@@ -1169,7 +1169,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/11</t>
+            <t xml:space="preserve">2023/02/16</t>
           </r>
         </is>
       </c>
@@ -1178,7 +1178,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13:55:55</t>
+            <t xml:space="preserve">05:54:48</t>
           </r>
         </is>
       </c>
@@ -1187,7 +1187,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(T)</t>
+            <t xml:space="preserve">JUAN-(M)</t>
           </r>
         </is>
       </c>
@@ -1196,7 +1196,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SABADO</t>
+            <t xml:space="preserve">JUEVES</t>
           </r>
         </is>
       </c>
@@ -1205,7 +1205,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1591000</t>
+            <t xml:space="preserve">300000</t>
           </r>
         </is>
       </c>
@@ -1214,7 +1214,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">160000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -1223,7 +1223,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1431000</t>
+            <t xml:space="preserve">300000</t>
           </r>
         </is>
       </c>
@@ -1234,7 +1234,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8365</t>
+            <t xml:space="preserve">2494</t>
           </r>
         </is>
       </c>
@@ -1243,7 +1243,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/11</t>
+            <t xml:space="preserve">2023/02/16</t>
           </r>
         </is>
       </c>
@@ -1252,7 +1252,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">22:00:41</t>
+            <t xml:space="preserve">13:51:53</t>
           </r>
         </is>
       </c>
@@ -1261,7 +1261,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
+            <t xml:space="preserve">LUCY-(T)</t>
           </r>
         </is>
       </c>
@@ -1270,7 +1270,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SABADO</t>
+            <t xml:space="preserve">JUEVES</t>
           </r>
         </is>
       </c>
@@ -1279,7 +1279,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1031000</t>
+            <t xml:space="preserve">1567000</t>
           </r>
         </is>
       </c>
@@ -1288,7 +1288,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">80000</t>
           </r>
         </is>
       </c>
@@ -1297,7 +1297,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1031000</t>
+            <t xml:space="preserve">1487000</t>
           </r>
         </is>
       </c>
@@ -1308,7 +1308,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8234</t>
+            <t xml:space="preserve">2530</t>
           </r>
         </is>
       </c>
@@ -1317,7 +1317,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/10</t>
+            <t xml:space="preserve">2023/02/16</t>
           </r>
         </is>
       </c>
@@ -1326,7 +1326,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">06:01:49</t>
+            <t xml:space="preserve">21:56:17</t>
           </r>
         </is>
       </c>
@@ -1335,7 +1335,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(M)</t>
+            <t xml:space="preserve">CARLOS-(N)</t>
           </r>
         </is>
       </c>
@@ -1344,7 +1344,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VIERNES</t>
+            <t xml:space="preserve">JUEVES</t>
           </r>
         </is>
       </c>
@@ -1353,7 +1353,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">691000</t>
+            <t xml:space="preserve">644000</t>
           </r>
         </is>
       </c>
@@ -1362,7 +1362,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">20000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -1371,7 +1371,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">671000</t>
+            <t xml:space="preserve">644000</t>
           </r>
         </is>
       </c>
@@ -1382,7 +1382,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8256</t>
+            <t xml:space="preserve">2413</t>
           </r>
         </is>
       </c>
@@ -1391,7 +1391,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/10</t>
+            <t xml:space="preserve">2023/02/15</t>
           </r>
         </is>
       </c>
@@ -1400,7 +1400,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13:53:18</t>
+            <t xml:space="preserve">06:05:18</t>
           </r>
         </is>
       </c>
@@ -1409,7 +1409,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(T)</t>
+            <t xml:space="preserve">JUAN-(M)</t>
           </r>
         </is>
       </c>
@@ -1418,7 +1418,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VIERNES</t>
+            <t xml:space="preserve">MIERCOLES</t>
           </r>
         </is>
       </c>
@@ -1427,7 +1427,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1005000</t>
+            <t xml:space="preserve">474000</t>
           </r>
         </is>
       </c>
@@ -1436,7 +1436,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">65000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -1445,7 +1445,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">940000</t>
+            <t xml:space="preserve">474000</t>
           </r>
         </is>
       </c>
@@ -1456,7 +1456,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8282</t>
+            <t xml:space="preserve">2431</t>
           </r>
         </is>
       </c>
@@ -1465,7 +1465,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/10</t>
+            <t xml:space="preserve">2023/02/15</t>
           </r>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">21:52:54</t>
+            <t xml:space="preserve">13:56:36</t>
           </r>
         </is>
       </c>
@@ -1483,7 +1483,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
+            <t xml:space="preserve">LUCY-(T)</t>
           </r>
         </is>
       </c>
@@ -1492,7 +1492,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VIERNES</t>
+            <t xml:space="preserve">MIERCOLES</t>
           </r>
         </is>
       </c>
@@ -1501,7 +1501,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">989000</t>
+            <t xml:space="preserve">1675000</t>
           </r>
         </is>
       </c>
@@ -1510,7 +1510,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">80000</t>
           </r>
         </is>
       </c>
@@ -1519,7 +1519,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">989000</t>
+            <t xml:space="preserve">1595000</t>
           </r>
         </is>
       </c>
@@ -1530,7 +1530,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8169</t>
+            <t xml:space="preserve">2470</t>
           </r>
         </is>
       </c>
@@ -1539,7 +1539,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/09</t>
+            <t xml:space="preserve">2023/02/15</t>
           </r>
         </is>
       </c>
@@ -1548,7 +1548,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">06:04:41</t>
+            <t xml:space="preserve">22:00:51</t>
           </r>
         </is>
       </c>
@@ -1557,7 +1557,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(M)</t>
+            <t xml:space="preserve">CARLOS-(N)</t>
           </r>
         </is>
       </c>
@@ -1566,7 +1566,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JUEVES</t>
+            <t xml:space="preserve">MIERCOLES</t>
           </r>
         </is>
       </c>
@@ -1575,7 +1575,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">598000</t>
+            <t xml:space="preserve">1999000</t>
           </r>
         </is>
       </c>
@@ -1584,7 +1584,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">20000</t>
+            <t xml:space="preserve">80000</t>
           </r>
         </is>
       </c>
@@ -1593,7 +1593,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">578000</t>
+            <t xml:space="preserve">1919000</t>
           </r>
         </is>
       </c>
@@ -1604,7 +1604,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8187</t>
+            <t xml:space="preserve">2293</t>
           </r>
         </is>
       </c>
@@ -1613,7 +1613,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/09</t>
+            <t xml:space="preserve">2023/02/14</t>
           </r>
         </is>
       </c>
@@ -1622,7 +1622,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13:59:19</t>
+            <t xml:space="preserve">05:53:15</t>
           </r>
         </is>
       </c>
@@ -1631,7 +1631,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(T)</t>
+            <t xml:space="preserve">JUAN-(M)</t>
           </r>
         </is>
       </c>
@@ -1640,7 +1640,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JUEVES</t>
+            <t xml:space="preserve">MARTES</t>
           </r>
         </is>
       </c>
@@ -1649,7 +1649,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1544000</t>
+            <t xml:space="preserve">522000</t>
           </r>
         </is>
       </c>
@@ -1667,7 +1667,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1464000</t>
+            <t xml:space="preserve">442000</t>
           </r>
         </is>
       </c>
@@ -1678,7 +1678,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8220</t>
+            <t xml:space="preserve">2309</t>
           </r>
         </is>
       </c>
@@ -1687,7 +1687,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/09</t>
+            <t xml:space="preserve">2023/02/14</t>
           </r>
         </is>
       </c>
@@ -1696,7 +1696,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">21:58:30</t>
+            <t xml:space="preserve">14:01:09</t>
           </r>
         </is>
       </c>
@@ -1705,7 +1705,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
+            <t xml:space="preserve">LUCY-(T)</t>
           </r>
         </is>
       </c>
@@ -1714,7 +1714,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JUEVES</t>
+            <t xml:space="preserve">MARTES</t>
           </r>
         </is>
       </c>
@@ -1723,7 +1723,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">668000</t>
+            <t xml:space="preserve">2375000</t>
           </r>
         </is>
       </c>
@@ -1741,7 +1741,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">668000</t>
+            <t xml:space="preserve">2375000</t>
           </r>
         </is>
       </c>
@@ -1752,7 +1752,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8096</t>
+            <t xml:space="preserve">2357</t>
           </r>
         </is>
       </c>
@@ -1761,7 +1761,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/08</t>
+            <t xml:space="preserve">2023/02/14</t>
           </r>
         </is>
       </c>
@@ -1770,7 +1770,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">06:02:07</t>
+            <t xml:space="preserve">21:53:18</t>
           </r>
         </is>
       </c>
@@ -1779,7 +1779,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(M)</t>
+            <t xml:space="preserve">CARLOS-(N)</t>
           </r>
         </is>
       </c>
@@ -1788,7 +1788,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MIERCOLES</t>
+            <t xml:space="preserve">MARTES</t>
           </r>
         </is>
       </c>
@@ -1797,7 +1797,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">701000</t>
+            <t xml:space="preserve">1758000</t>
           </r>
         </is>
       </c>
@@ -1806,7 +1806,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">280000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -1815,7 +1815,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">421000</t>
+            <t xml:space="preserve">1758000</t>
           </r>
         </is>
       </c>
@@ -1826,7 +1826,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8102</t>
+            <t xml:space="preserve">2217</t>
           </r>
         </is>
       </c>
@@ -1835,7 +1835,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/08</t>
+            <t xml:space="preserve">2023/02/13</t>
           </r>
         </is>
       </c>
@@ -1844,7 +1844,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10:38:18</t>
+            <t xml:space="preserve">05:56:38</t>
           </r>
         </is>
       </c>
@@ -1853,7 +1853,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JHON-(10:38)</t>
+            <t xml:space="preserve">JUAN-(M)</t>
           </r>
         </is>
       </c>
@@ -1862,7 +1862,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MIERCOLES</t>
+            <t xml:space="preserve">LUNES</t>
           </r>
         </is>
       </c>
@@ -1871,7 +1871,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">610000</t>
           </r>
         </is>
       </c>
@@ -1880,7 +1880,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">28000</t>
           </r>
         </is>
       </c>
@@ -1889,7 +1889,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">582000</t>
           </r>
         </is>
       </c>
@@ -1900,7 +1900,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8119</t>
+            <t xml:space="preserve">2236</t>
           </r>
         </is>
       </c>
@@ -1909,7 +1909,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/08</t>
+            <t xml:space="preserve">2023/02/13</t>
           </r>
         </is>
       </c>
@@ -1918,7 +1918,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13:57:05</t>
+            <t xml:space="preserve">13:56:25</t>
           </r>
         </is>
       </c>
@@ -1927,7 +1927,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(T)</t>
+            <t xml:space="preserve">LUCY-(T)</t>
           </r>
         </is>
       </c>
@@ -1936,7 +1936,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MIERCOLES</t>
+            <t xml:space="preserve">LUNES</t>
           </r>
         </is>
       </c>
@@ -1945,7 +1945,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1539000</t>
+            <t xml:space="preserve">1867000</t>
           </r>
         </is>
       </c>
@@ -1954,7 +1954,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">115000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -1963,7 +1963,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1424000</t>
+            <t xml:space="preserve">1867000</t>
           </r>
         </is>
       </c>
@@ -1974,7 +1974,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8154</t>
+            <t xml:space="preserve">2278</t>
           </r>
         </is>
       </c>
@@ -1983,7 +1983,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/08</t>
+            <t xml:space="preserve">2023/02/13</t>
           </r>
         </is>
       </c>
@@ -1992,7 +1992,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">21:53:56</t>
+            <t xml:space="preserve">21:56:42</t>
           </r>
         </is>
       </c>
@@ -2001,7 +2001,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
+            <t xml:space="preserve">CARLOS-(N)</t>
           </r>
         </is>
       </c>
@@ -2010,7 +2010,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MIERCOLES</t>
+            <t xml:space="preserve">LUNES</t>
           </r>
         </is>
       </c>
@@ -2019,7 +2019,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">518000</t>
+            <t xml:space="preserve">740000</t>
           </r>
         </is>
       </c>
@@ -2028,7 +2028,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">50000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -2037,7 +2037,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">468000</t>
+            <t xml:space="preserve">740000</t>
           </r>
         </is>
       </c>
@@ -2048,7 +2048,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8040</t>
+            <t xml:space="preserve">2128</t>
           </r>
         </is>
       </c>
@@ -2057,7 +2057,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/07</t>
+            <t xml:space="preserve">2023/02/12</t>
           </r>
         </is>
       </c>
@@ -2066,7 +2066,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">06:02:24</t>
+            <t xml:space="preserve">06:01:54</t>
           </r>
         </is>
       </c>
@@ -2075,7 +2075,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(M)</t>
+            <t xml:space="preserve">JUAN-(M)</t>
           </r>
         </is>
       </c>
@@ -2084,7 +2084,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MARTES</t>
+            <t xml:space="preserve">DOMINGO</t>
           </r>
         </is>
       </c>
@@ -2093,7 +2093,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">726000</t>
+            <t xml:space="preserve">2445000</t>
           </r>
         </is>
       </c>
@@ -2102,7 +2102,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">235000</t>
+            <t xml:space="preserve">180000</t>
           </r>
         </is>
       </c>
@@ -2111,7 +2111,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">491000</t>
+            <t xml:space="preserve">2265000</t>
           </r>
         </is>
       </c>
@@ -2122,7 +2122,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8062</t>
+            <t xml:space="preserve">2151</t>
           </r>
         </is>
       </c>
@@ -2131,7 +2131,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/07</t>
+            <t xml:space="preserve">2023/02/12</t>
           </r>
         </is>
       </c>
@@ -2140,7 +2140,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">14:05:26</t>
+            <t xml:space="preserve">14:03:39</t>
           </r>
         </is>
       </c>
@@ -2149,7 +2149,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JHON-(T)</t>
+            <t xml:space="preserve">LUCY-(T)</t>
           </r>
         </is>
       </c>
@@ -2158,7 +2158,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MARTES</t>
+            <t xml:space="preserve">DOMINGO</t>
           </r>
         </is>
       </c>
@@ -2167,7 +2167,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">318000</t>
+            <t xml:space="preserve">1750000</t>
           </r>
         </is>
       </c>
@@ -2185,7 +2185,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">318000</t>
+            <t xml:space="preserve">1750000</t>
           </r>
         </is>
       </c>
@@ -2196,7 +2196,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8072</t>
+            <t xml:space="preserve">2190</t>
           </r>
         </is>
       </c>
@@ -2205,7 +2205,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/07</t>
+            <t xml:space="preserve">2023/02/12</t>
           </r>
         </is>
       </c>
@@ -2214,7 +2214,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">18:02:08</t>
+            <t xml:space="preserve">21:56:16</t>
           </r>
         </is>
       </c>
@@ -2223,7 +2223,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(T)</t>
+            <t xml:space="preserve">CARLOS-(N)</t>
           </r>
         </is>
       </c>
@@ -2232,7 +2232,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MARTES</t>
+            <t xml:space="preserve">DOMINGO</t>
           </r>
         </is>
       </c>
@@ -2241,7 +2241,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">968000</t>
+            <t xml:space="preserve">842000</t>
           </r>
         </is>
       </c>
@@ -2259,7 +2259,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">968000</t>
+            <t xml:space="preserve">842000</t>
           </r>
         </is>
       </c>
@@ -2270,7 +2270,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7976</t>
+            <t xml:space="preserve">2019</t>
           </r>
         </is>
       </c>
@@ -2279,7 +2279,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/06</t>
+            <t xml:space="preserve">2023/02/11</t>
           </r>
         </is>
       </c>
@@ -2288,7 +2288,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">06:05:53</t>
+            <t xml:space="preserve">05:59:11</t>
           </r>
         </is>
       </c>
@@ -2297,7 +2297,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(M)</t>
+            <t xml:space="preserve">CARLOS-(M)</t>
           </r>
         </is>
       </c>
@@ -2306,7 +2306,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">LUNES</t>
+            <t xml:space="preserve">SABADO</t>
           </r>
         </is>
       </c>
@@ -2315,7 +2315,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">969000</t>
+            <t xml:space="preserve">564000</t>
           </r>
         </is>
       </c>
@@ -2324,7 +2324,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">80000</t>
+            <t xml:space="preserve">5000</t>
           </r>
         </is>
       </c>
@@ -2333,7 +2333,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">889000</t>
+            <t xml:space="preserve">559000</t>
           </r>
         </is>
       </c>
@@ -2344,7 +2344,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8007</t>
+            <t xml:space="preserve">2033</t>
           </r>
         </is>
       </c>
@@ -2353,7 +2353,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/06</t>
+            <t xml:space="preserve">2023/02/11</t>
           </r>
         </is>
       </c>
@@ -2362,7 +2362,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13:58:13</t>
+            <t xml:space="preserve">14:00:19</t>
           </r>
         </is>
       </c>
@@ -2371,7 +2371,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(T)</t>
+            <t xml:space="preserve">LUCY-(T)</t>
           </r>
         </is>
       </c>
@@ -2380,7 +2380,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">LUNES</t>
+            <t xml:space="preserve">SABADO</t>
           </r>
         </is>
       </c>
@@ -2389,7 +2389,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1012000</t>
+            <t xml:space="preserve">2323000</t>
           </r>
         </is>
       </c>
@@ -2398,7 +2398,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">15000</t>
+            <t xml:space="preserve">20000</t>
           </r>
         </is>
       </c>
@@ -2407,7 +2407,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">997000</t>
+            <t xml:space="preserve">2303000</t>
           </r>
         </is>
       </c>
@@ -2418,7 +2418,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8032</t>
+            <t xml:space="preserve">2082</t>
           </r>
         </is>
       </c>
@@ -2427,7 +2427,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/06</t>
+            <t xml:space="preserve">2023/02/11</t>
           </r>
         </is>
       </c>
@@ -2436,7 +2436,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">21:57:22</t>
+            <t xml:space="preserve">22:00:23</t>
           </r>
         </is>
       </c>
@@ -2445,7 +2445,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
+            <t xml:space="preserve">JUAN-(N)</t>
           </r>
         </is>
       </c>
@@ -2454,7 +2454,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">LUNES</t>
+            <t xml:space="preserve">SABADO</t>
           </r>
         </is>
       </c>
@@ -2463,7 +2463,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1018000</t>
+            <t xml:space="preserve">1334000</t>
           </r>
         </is>
       </c>
@@ -2481,7 +2481,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1018000</t>
+            <t xml:space="preserve">1334000</t>
           </r>
         </is>
       </c>
@@ -2492,7 +2492,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7919</t>
+            <t xml:space="preserve">1938</t>
           </r>
         </is>
       </c>
@@ -2501,7 +2501,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/05</t>
+            <t xml:space="preserve">2023/02/10</t>
           </r>
         </is>
       </c>
@@ -2510,7 +2510,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">06:01:25</t>
+            <t xml:space="preserve">06:02:53</t>
           </r>
         </is>
       </c>
@@ -2519,7 +2519,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(M)</t>
+            <t xml:space="preserve">CARLOS-(M)</t>
           </r>
         </is>
       </c>
@@ -2528,7 +2528,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">DOMINGO</t>
+            <t xml:space="preserve">VIERNES</t>
           </r>
         </is>
       </c>
@@ -2537,7 +2537,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1116000</t>
+            <t xml:space="preserve">498000</t>
           </r>
         </is>
       </c>
@@ -2546,7 +2546,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -2555,7 +2555,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1111000</t>
+            <t xml:space="preserve">498000</t>
           </r>
         </is>
       </c>
@@ -2566,7 +2566,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7936</t>
+            <t xml:space="preserve">1952</t>
           </r>
         </is>
       </c>
@@ -2575,7 +2575,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/05</t>
+            <t xml:space="preserve">2023/02/10</t>
           </r>
         </is>
       </c>
@@ -2584,7 +2584,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13:51:50</t>
+            <t xml:space="preserve">13:55:05</t>
           </r>
         </is>
       </c>
@@ -2593,7 +2593,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(T)</t>
+            <t xml:space="preserve">LUCY-(T)</t>
           </r>
         </is>
       </c>
@@ -2602,7 +2602,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">DOMINGO</t>
+            <t xml:space="preserve">VIERNES</t>
           </r>
         </is>
       </c>
@@ -2611,7 +2611,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">624000</t>
+            <t xml:space="preserve">1988000</t>
           </r>
         </is>
       </c>
@@ -2620,7 +2620,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -2629,7 +2629,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">614000</t>
+            <t xml:space="preserve">1988000</t>
           </r>
         </is>
       </c>
@@ -2640,7 +2640,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7953</t>
+            <t xml:space="preserve">1995</t>
           </r>
         </is>
       </c>
@@ -2649,7 +2649,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/05</t>
+            <t xml:space="preserve">2023/02/10</t>
           </r>
         </is>
       </c>
@@ -2658,7 +2658,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">21:49:48</t>
+            <t xml:space="preserve">22:02:54</t>
           </r>
         </is>
       </c>
@@ -2667,7 +2667,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
+            <t xml:space="preserve">JUAN-(N)</t>
           </r>
         </is>
       </c>
@@ -2676,7 +2676,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">DOMINGO</t>
+            <t xml:space="preserve">VIERNES</t>
           </r>
         </is>
       </c>
@@ -2685,7 +2685,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1948000</t>
+            <t xml:space="preserve">1540000</t>
           </r>
         </is>
       </c>
@@ -2694,7 +2694,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">180000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -2703,7 +2703,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1768000</t>
+            <t xml:space="preserve">1540000</t>
           </r>
         </is>
       </c>
@@ -2714,7 +2714,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7802</t>
+            <t xml:space="preserve">1867</t>
           </r>
         </is>
       </c>
@@ -2723,7 +2723,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/04</t>
+            <t xml:space="preserve">2023/02/09</t>
           </r>
         </is>
       </c>
@@ -2732,7 +2732,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">06:02:26</t>
+            <t xml:space="preserve">05:57:14</t>
           </r>
         </is>
       </c>
@@ -2741,7 +2741,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(M)</t>
+            <t xml:space="preserve">CARLOS-(M)</t>
           </r>
         </is>
       </c>
@@ -2750,7 +2750,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SABADO</t>
+            <t xml:space="preserve">JUEVES</t>
           </r>
         </is>
       </c>
@@ -2759,7 +2759,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">898000</t>
+            <t xml:space="preserve">451000</t>
           </r>
         </is>
       </c>
@@ -2768,7 +2768,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -2777,7 +2777,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">888000</t>
+            <t xml:space="preserve">451000</t>
           </r>
         </is>
       </c>
@@ -2788,7 +2788,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7827</t>
+            <t xml:space="preserve">1877</t>
           </r>
         </is>
       </c>
@@ -2797,7 +2797,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/04</t>
+            <t xml:space="preserve">2023/02/09</t>
           </r>
         </is>
       </c>
@@ -2806,7 +2806,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13:54:21</t>
+            <t xml:space="preserve">13:52:52</t>
           </r>
         </is>
       </c>
@@ -2815,7 +2815,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(T)</t>
+            <t xml:space="preserve">LUCY-(T)</t>
           </r>
         </is>
       </c>
@@ -2824,7 +2824,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SABADO</t>
+            <t xml:space="preserve">JUEVES</t>
           </r>
         </is>
       </c>
@@ -2833,7 +2833,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2390000</t>
+            <t xml:space="preserve">1619000</t>
           </r>
         </is>
       </c>
@@ -2842,7 +2842,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">195000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -2851,7 +2851,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2195000</t>
+            <t xml:space="preserve">1619000</t>
           </r>
         </is>
       </c>
@@ -2862,7 +2862,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7880</t>
+            <t xml:space="preserve">1912</t>
           </r>
         </is>
       </c>
@@ -2871,7 +2871,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/04</t>
+            <t xml:space="preserve">2023/02/09</t>
           </r>
         </is>
       </c>
@@ -2880,7 +2880,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">22:00:23</t>
+            <t xml:space="preserve">21:58:31</t>
           </r>
         </is>
       </c>
@@ -2889,7 +2889,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
+            <t xml:space="preserve">JUAN-(N)</t>
           </r>
         </is>
       </c>
@@ -2898,7 +2898,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SABADO</t>
+            <t xml:space="preserve">JUEVES</t>
           </r>
         </is>
       </c>
@@ -2907,7 +2907,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1029000</t>
+            <t xml:space="preserve">748000</t>
           </r>
         </is>
       </c>
@@ -2916,7 +2916,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">40000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -2925,7 +2925,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">989000</t>
+            <t xml:space="preserve">748000</t>
           </r>
         </is>
       </c>
@@ -2936,7 +2936,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7727</t>
+            <t xml:space="preserve">1798</t>
           </r>
         </is>
       </c>
@@ -2945,7 +2945,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/03</t>
+            <t xml:space="preserve">2023/02/08</t>
           </r>
         </is>
       </c>
@@ -2954,7 +2954,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">05:55:16</t>
+            <t xml:space="preserve">05:57:50</t>
           </r>
         </is>
       </c>
@@ -2963,7 +2963,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(M)</t>
+            <t xml:space="preserve">CARLOS-(M)</t>
           </r>
         </is>
       </c>
@@ -2972,7 +2972,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VIERNES</t>
+            <t xml:space="preserve">MIERCOLES</t>
           </r>
         </is>
       </c>
@@ -2981,7 +2981,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1517000</t>
+            <t xml:space="preserve">490000</t>
           </r>
         </is>
       </c>
@@ -2990,7 +2990,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">55000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -2999,7 +2999,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1462000</t>
+            <t xml:space="preserve">490000</t>
           </r>
         </is>
       </c>
@@ -3010,7 +3010,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7762</t>
+            <t xml:space="preserve">1812</t>
           </r>
         </is>
       </c>
@@ -3019,7 +3019,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/03</t>
+            <t xml:space="preserve">2023/02/08</t>
           </r>
         </is>
       </c>
@@ -3028,7 +3028,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">17:52:40</t>
+            <t xml:space="preserve">13:54:45</t>
           </r>
         </is>
       </c>
@@ -3037,7 +3037,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(T)</t>
+            <t xml:space="preserve">LUCY-(T)</t>
           </r>
         </is>
       </c>
@@ -3046,7 +3046,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VIERNES</t>
+            <t xml:space="preserve">MIERCOLES</t>
           </r>
         </is>
       </c>
@@ -3055,7 +3055,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1463000</t>
+            <t xml:space="preserve">1967000</t>
           </r>
         </is>
       </c>
@@ -3073,7 +3073,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1463000</t>
+            <t xml:space="preserve">1967000</t>
           </r>
         </is>
       </c>
@@ -3084,7 +3084,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7658</t>
+            <t xml:space="preserve">1853</t>
           </r>
         </is>
       </c>
@@ -3093,7 +3093,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/02</t>
+            <t xml:space="preserve">2023/02/08</t>
           </r>
         </is>
       </c>
@@ -3102,7 +3102,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">06:07:41</t>
+            <t xml:space="preserve">22:00:55</t>
           </r>
         </is>
       </c>
@@ -3111,7 +3111,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(M)</t>
+            <t xml:space="preserve">JUAN-(N)</t>
           </r>
         </is>
       </c>
@@ -3120,7 +3120,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JUEVES</t>
+            <t xml:space="preserve">MIERCOLES</t>
           </r>
         </is>
       </c>
@@ -3129,7 +3129,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">780000</t>
+            <t xml:space="preserve">988000</t>
           </r>
         </is>
       </c>
@@ -3138,7 +3138,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">50000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -3147,7 +3147,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">730000</t>
+            <t xml:space="preserve">988000</t>
           </r>
         </is>
       </c>
@@ -3158,7 +3158,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7680</t>
+            <t xml:space="preserve">1737</t>
           </r>
         </is>
       </c>
@@ -3167,7 +3167,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/02</t>
+            <t xml:space="preserve">2023/02/07</t>
           </r>
         </is>
       </c>
@@ -3176,7 +3176,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13:57:52</t>
+            <t xml:space="preserve">06:01:10</t>
           </r>
         </is>
       </c>
@@ -3185,7 +3185,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(T)</t>
+            <t xml:space="preserve">CARLOS-(M)</t>
           </r>
         </is>
       </c>
@@ -3194,7 +3194,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JUEVES</t>
+            <t xml:space="preserve">MARTES</t>
           </r>
         </is>
       </c>
@@ -3203,7 +3203,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1659000</t>
+            <t xml:space="preserve">457000</t>
           </r>
         </is>
       </c>
@@ -3212,7 +3212,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">35000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -3221,7 +3221,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1624000</t>
+            <t xml:space="preserve">457000</t>
           </r>
         </is>
       </c>
@@ -3232,7 +3232,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7718</t>
+            <t xml:space="preserve">1747</t>
           </r>
         </is>
       </c>
@@ -3241,7 +3241,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/02</t>
+            <t xml:space="preserve">2023/02/07</t>
           </r>
         </is>
       </c>
@@ -3250,7 +3250,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">21:55:02</t>
+            <t xml:space="preserve">14:00:38</t>
           </r>
         </is>
       </c>
@@ -3259,7 +3259,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
+            <t xml:space="preserve">LUCY-(T)</t>
           </r>
         </is>
       </c>
@@ -3268,7 +3268,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JUEVES</t>
+            <t xml:space="preserve">MARTES</t>
           </r>
         </is>
       </c>
@@ -3277,7 +3277,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1136000</t>
+            <t xml:space="preserve">1287000</t>
           </r>
         </is>
       </c>
@@ -3286,7 +3286,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">37000</t>
           </r>
         </is>
       </c>
@@ -3295,7 +3295,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1136000</t>
+            <t xml:space="preserve">1250000</t>
           </r>
         </is>
       </c>
@@ -3306,7 +3306,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7571</t>
+            <t xml:space="preserve">1777</t>
           </r>
         </is>
       </c>
@@ -3315,7 +3315,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/01</t>
+            <t xml:space="preserve">2023/02/07</t>
           </r>
         </is>
       </c>
@@ -3324,7 +3324,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">05:59:31</t>
+            <t xml:space="preserve">21:57:58</t>
           </r>
         </is>
       </c>
@@ -3333,7 +3333,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(M)</t>
+            <t xml:space="preserve">JUAN-(N)</t>
           </r>
         </is>
       </c>
@@ -3342,7 +3342,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MIERCOLES</t>
+            <t xml:space="preserve">MARTES</t>
           </r>
         </is>
       </c>
@@ -3351,7 +3351,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">720000</t>
+            <t xml:space="preserve">570000</t>
           </r>
         </is>
       </c>
@@ -3360,7 +3360,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">155000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -3369,7 +3369,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">565000</t>
+            <t xml:space="preserve">570000</t>
           </r>
         </is>
       </c>
@@ -3380,7 +3380,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7595</t>
+            <t xml:space="preserve">1689</t>
           </r>
         </is>
       </c>
@@ -3389,7 +3389,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/01</t>
+            <t xml:space="preserve">2023/02/06</t>
           </r>
         </is>
       </c>
@@ -3398,7 +3398,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13:58:06</t>
+            <t xml:space="preserve">05:57:03</t>
           </r>
         </is>
       </c>
@@ -3407,7 +3407,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(T)</t>
+            <t xml:space="preserve">CARLOS-(M)</t>
           </r>
         </is>
       </c>
@@ -3416,7 +3416,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MIERCOLES</t>
+            <t xml:space="preserve">LUNES</t>
           </r>
         </is>
       </c>
@@ -3425,7 +3425,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1659000</t>
+            <t xml:space="preserve">290000</t>
           </r>
         </is>
       </c>
@@ -3434,7 +3434,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">370000</t>
+            <t xml:space="preserve">150000</t>
           </r>
         </is>
       </c>
@@ -3443,7 +3443,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1289000</t>
+            <t xml:space="preserve">140000</t>
           </r>
         </is>
       </c>
@@ -3454,7 +3454,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7637</t>
+            <t xml:space="preserve">1698</t>
           </r>
         </is>
       </c>
@@ -3463,7 +3463,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/02/01</t>
+            <t xml:space="preserve">2023/02/06</t>
           </r>
         </is>
       </c>
@@ -3472,7 +3472,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">21:59:01</t>
+            <t xml:space="preserve">13:57:36</t>
           </r>
         </is>
       </c>
@@ -3481,7 +3481,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
+            <t xml:space="preserve">LUCY-(T)</t>
           </r>
         </is>
       </c>
@@ -3490,7 +3490,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MIERCOLES</t>
+            <t xml:space="preserve">LUNES</t>
           </r>
         </is>
       </c>
@@ -3499,7 +3499,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">372000</t>
+            <t xml:space="preserve">1300000</t>
           </r>
         </is>
       </c>
@@ -3508,7 +3508,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">600000</t>
           </r>
         </is>
       </c>
@@ -3517,7 +3517,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">372000</t>
+            <t xml:space="preserve">700000</t>
           </r>
         </is>
       </c>
@@ -3528,7 +3528,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7516</t>
+            <t xml:space="preserve">1728</t>
           </r>
         </is>
       </c>
@@ -3537,7 +3537,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/31</t>
+            <t xml:space="preserve">2023/02/06</t>
           </r>
         </is>
       </c>
@@ -3546,7 +3546,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">05:53:45</t>
+            <t xml:space="preserve">21:56:18</t>
           </r>
         </is>
       </c>
@@ -3555,7 +3555,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(M)</t>
+            <t xml:space="preserve">JUAN-(N)</t>
           </r>
         </is>
       </c>
@@ -3564,7 +3564,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MARTES</t>
+            <t xml:space="preserve">LUNES</t>
           </r>
         </is>
       </c>
@@ -3573,7 +3573,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">390000</t>
+            <t xml:space="preserve">1233000</t>
           </r>
         </is>
       </c>
@@ -3582,7 +3582,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">160000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -3591,7 +3591,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">230000</t>
+            <t xml:space="preserve">1233000</t>
           </r>
         </is>
       </c>
@@ -3602,7 +3602,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7528</t>
+            <t xml:space="preserve">1606</t>
           </r>
         </is>
       </c>
@@ -3611,7 +3611,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/31</t>
+            <t xml:space="preserve">2023/02/05</t>
           </r>
         </is>
       </c>
@@ -3620,7 +3620,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13:58:43</t>
+            <t xml:space="preserve">06:13:48</t>
           </r>
         </is>
       </c>
@@ -3629,7 +3629,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(T)</t>
+            <t xml:space="preserve">CARLOS-(M)</t>
           </r>
         </is>
       </c>
@@ -3638,7 +3638,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MARTES</t>
+            <t xml:space="preserve">DOMINGO</t>
           </r>
         </is>
       </c>
@@ -3647,7 +3647,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1392000</t>
+            <t xml:space="preserve">2236000</t>
           </r>
         </is>
       </c>
@@ -3656,7 +3656,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10000</t>
+            <t xml:space="preserve">90000</t>
           </r>
         </is>
       </c>
@@ -3665,7 +3665,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1382000</t>
+            <t xml:space="preserve">2146000</t>
           </r>
         </is>
       </c>
@@ -3676,7 +3676,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7560</t>
+            <t xml:space="preserve">1621</t>
           </r>
         </is>
       </c>
@@ -3685,7 +3685,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/31</t>
+            <t xml:space="preserve">2023/02/05</t>
           </r>
         </is>
       </c>
@@ -3694,7 +3694,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">21:51:13</t>
+            <t xml:space="preserve">14:16:26</t>
           </r>
         </is>
       </c>
@@ -3703,7 +3703,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
+            <t xml:space="preserve">LUCY-(T)</t>
           </r>
         </is>
       </c>
@@ -3712,7 +3712,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MARTES</t>
+            <t xml:space="preserve">DOMINGO</t>
           </r>
         </is>
       </c>
@@ -3721,7 +3721,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">595000</t>
+            <t xml:space="preserve">2040000</t>
           </r>
         </is>
       </c>
@@ -3730,7 +3730,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">90000</t>
           </r>
         </is>
       </c>
@@ -3739,7 +3739,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">595000</t>
+            <t xml:space="preserve">1950000</t>
           </r>
         </is>
       </c>
@@ -3750,7 +3750,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7466</t>
+            <t xml:space="preserve">1663</t>
           </r>
         </is>
       </c>
@@ -3759,7 +3759,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/30</t>
+            <t xml:space="preserve">2023/02/05</t>
           </r>
         </is>
       </c>
@@ -3768,7 +3768,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">05:53:25</t>
+            <t xml:space="preserve">21:58:15</t>
           </r>
         </is>
       </c>
@@ -3777,7 +3777,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(M)</t>
+            <t xml:space="preserve">JUAN-(N)</t>
           </r>
         </is>
       </c>
@@ -3786,7 +3786,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">LUNES</t>
+            <t xml:space="preserve">DOMINGO</t>
           </r>
         </is>
       </c>
@@ -3795,7 +3795,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">260000</t>
+            <t xml:space="preserve">499000</t>
           </r>
         </is>
       </c>
@@ -3804,7 +3804,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -3813,7 +3813,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">255000</t>
+            <t xml:space="preserve">499000</t>
           </r>
         </is>
       </c>
@@ -3824,7 +3824,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7476</t>
+            <t xml:space="preserve">1513</t>
           </r>
         </is>
       </c>
@@ -3833,7 +3833,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/30</t>
+            <t xml:space="preserve">2023/02/04</t>
           </r>
         </is>
       </c>
@@ -3842,7 +3842,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13:53:11</t>
+            <t xml:space="preserve">06:04:32</t>
           </r>
         </is>
       </c>
@@ -3851,7 +3851,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(T)</t>
+            <t xml:space="preserve">LUCY-(M)</t>
           </r>
         </is>
       </c>
@@ -3860,7 +3860,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">LUNES</t>
+            <t xml:space="preserve">SABADO</t>
           </r>
         </is>
       </c>
@@ -3869,7 +3869,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1246000</t>
+            <t xml:space="preserve">1061000</t>
           </r>
         </is>
       </c>
@@ -3878,7 +3878,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -3887,7 +3887,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1241000</t>
+            <t xml:space="preserve">1061000</t>
           </r>
         </is>
       </c>
@@ -3898,7 +3898,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7509</t>
+            <t xml:space="preserve">1534</t>
           </r>
         </is>
       </c>
@@ -3907,7 +3907,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/30</t>
+            <t xml:space="preserve">2023/02/04</t>
           </r>
         </is>
       </c>
@@ -3916,7 +3916,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">21:53:04</t>
+            <t xml:space="preserve">14:02:10</t>
           </r>
         </is>
       </c>
@@ -3925,7 +3925,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
+            <t xml:space="preserve">JUAN-(T)</t>
           </r>
         </is>
       </c>
@@ -3934,7 +3934,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">LUNES</t>
+            <t xml:space="preserve">SABADO</t>
           </r>
         </is>
       </c>
@@ -3943,7 +3943,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">335000</t>
+            <t xml:space="preserve">1566000</t>
           </r>
         </is>
       </c>
@@ -3961,7 +3961,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">335000</t>
+            <t xml:space="preserve">1566000</t>
           </r>
         </is>
       </c>
@@ -3972,7 +3972,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7414</t>
+            <t xml:space="preserve">1568</t>
           </r>
         </is>
       </c>
@@ -3981,7 +3981,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/29</t>
+            <t xml:space="preserve">2023/02/04</t>
           </r>
         </is>
       </c>
@@ -3990,7 +3990,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">06:03:52</t>
+            <t xml:space="preserve">21:55:31</t>
           </r>
         </is>
       </c>
@@ -3999,7 +3999,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(M)</t>
+            <t xml:space="preserve">CARLOS-(N)</t>
           </r>
         </is>
       </c>
@@ -4008,7 +4008,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">DOMINGO</t>
+            <t xml:space="preserve">SABADO</t>
           </r>
         </is>
       </c>
@@ -4017,7 +4017,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">922000</t>
+            <t xml:space="preserve">1130000</t>
           </r>
         </is>
       </c>
@@ -4026,7 +4026,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">5000</t>
           </r>
         </is>
       </c>
@@ -4035,7 +4035,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">922000</t>
+            <t xml:space="preserve">1125000</t>
           </r>
         </is>
       </c>
@@ -4046,7 +4046,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7435</t>
+            <t xml:space="preserve">1447</t>
           </r>
         </is>
       </c>
@@ -4055,7 +4055,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/29</t>
+            <t xml:space="preserve">2023/02/03</t>
           </r>
         </is>
       </c>
@@ -4064,7 +4064,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13:57:56</t>
+            <t xml:space="preserve">06:01:16</t>
           </r>
         </is>
       </c>
@@ -4073,7 +4073,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(T)</t>
+            <t xml:space="preserve">LUCY-(M)</t>
           </r>
         </is>
       </c>
@@ -4082,7 +4082,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">DOMINGO</t>
+            <t xml:space="preserve">VIERNES</t>
           </r>
         </is>
       </c>
@@ -4091,7 +4091,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">965000</t>
+            <t xml:space="preserve">502000</t>
           </r>
         </is>
       </c>
@@ -4100,7 +4100,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10000</t>
+            <t xml:space="preserve">150000</t>
           </r>
         </is>
       </c>
@@ -4109,7 +4109,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">955000</t>
+            <t xml:space="preserve">352000</t>
           </r>
         </is>
       </c>
@@ -4120,7 +4120,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7454</t>
+            <t xml:space="preserve">1463</t>
           </r>
         </is>
       </c>
@@ -4129,7 +4129,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/29</t>
+            <t xml:space="preserve">2023/02/03</t>
           </r>
         </is>
       </c>
@@ -4138,7 +4138,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">21:49:59</t>
+            <t xml:space="preserve">14:09:24</t>
           </r>
         </is>
       </c>
@@ -4147,7 +4147,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
+            <t xml:space="preserve">JUAN-(T)</t>
           </r>
         </is>
       </c>
@@ -4156,7 +4156,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">DOMINGO</t>
+            <t xml:space="preserve">VIERNES</t>
           </r>
         </is>
       </c>
@@ -4165,7 +4165,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1213000</t>
+            <t xml:space="preserve">1042000</t>
           </r>
         </is>
       </c>
@@ -4174,7 +4174,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">180000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -4183,7 +4183,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1033000</t>
+            <t xml:space="preserve">1042000</t>
           </r>
         </is>
       </c>
@@ -4194,7 +4194,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7286</t>
+            <t xml:space="preserve">1489</t>
           </r>
         </is>
       </c>
@@ -4203,7 +4203,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/28</t>
+            <t xml:space="preserve">2023/02/03</t>
           </r>
         </is>
       </c>
@@ -4212,7 +4212,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">05:59:37</t>
+            <t xml:space="preserve">21:57:44</t>
           </r>
         </is>
       </c>
@@ -4221,7 +4221,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(M)</t>
+            <t xml:space="preserve">CARLOS-(N)</t>
           </r>
         </is>
       </c>
@@ -4230,7 +4230,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SABADO</t>
+            <t xml:space="preserve">VIERNES</t>
           </r>
         </is>
       </c>
@@ -4239,7 +4239,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1116000</t>
+            <t xml:space="preserve">1010000</t>
           </r>
         </is>
       </c>
@@ -4248,7 +4248,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">211000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -4257,7 +4257,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">905000</t>
+            <t xml:space="preserve">1010000</t>
           </r>
         </is>
       </c>
@@ -4268,7 +4268,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7315</t>
+            <t xml:space="preserve">1371</t>
           </r>
         </is>
       </c>
@@ -4277,7 +4277,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/28</t>
+            <t xml:space="preserve">2023/02/02</t>
           </r>
         </is>
       </c>
@@ -4286,7 +4286,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13:57:52</t>
+            <t xml:space="preserve">06:02:11</t>
           </r>
         </is>
       </c>
@@ -4295,7 +4295,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(T)</t>
+            <t xml:space="preserve">LUCY-(M)</t>
           </r>
         </is>
       </c>
@@ -4304,7 +4304,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SABADO</t>
+            <t xml:space="preserve">JUEVES</t>
           </r>
         </is>
       </c>
@@ -4313,7 +4313,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2558000</t>
+            <t xml:space="preserve">446000</t>
           </r>
         </is>
       </c>
@@ -4322,7 +4322,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">205000</t>
+            <t xml:space="preserve">13000</t>
           </r>
         </is>
       </c>
@@ -4331,7 +4331,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2353000</t>
+            <t xml:space="preserve">433000</t>
           </r>
         </is>
       </c>
@@ -4342,7 +4342,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7373</t>
+            <t xml:space="preserve">1387</t>
           </r>
         </is>
       </c>
@@ -4351,7 +4351,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/28</t>
+            <t xml:space="preserve">2023/02/02</t>
           </r>
         </is>
       </c>
@@ -4360,7 +4360,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">22:01:34</t>
+            <t xml:space="preserve">14:00:22</t>
           </r>
         </is>
       </c>
@@ -4369,7 +4369,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
+            <t xml:space="preserve">JUAN-(T)</t>
           </r>
         </is>
       </c>
@@ -4378,7 +4378,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SABADO</t>
+            <t xml:space="preserve">JUEVES</t>
           </r>
         </is>
       </c>
@@ -4387,7 +4387,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1327000</t>
+            <t xml:space="preserve">1709000</t>
           </r>
         </is>
       </c>
@@ -4405,7 +4405,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1327000</t>
+            <t xml:space="preserve">1709000</t>
           </r>
         </is>
       </c>
@@ -4416,7 +4416,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7210</t>
+            <t xml:space="preserve">1424</t>
           </r>
         </is>
       </c>
@@ -4425,7 +4425,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/27</t>
+            <t xml:space="preserve">2023/02/02</t>
           </r>
         </is>
       </c>
@@ -4434,7 +4434,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">05:59:45</t>
+            <t xml:space="preserve">22:09:02</t>
           </r>
         </is>
       </c>
@@ -4443,7 +4443,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(M)</t>
+            <t xml:space="preserve">CARLOS-(N)</t>
           </r>
         </is>
       </c>
@@ -4452,7 +4452,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VIERNES</t>
+            <t xml:space="preserve">JUEVES</t>
           </r>
         </is>
       </c>
@@ -4461,7 +4461,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">953000</t>
+            <t xml:space="preserve">1734000</t>
           </r>
         </is>
       </c>
@@ -4470,7 +4470,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -4479,7 +4479,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">943000</t>
+            <t xml:space="preserve">1734000</t>
           </r>
         </is>
       </c>
@@ -4490,7 +4490,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7236</t>
+            <t xml:space="preserve">1290</t>
           </r>
         </is>
       </c>
@@ -4499,7 +4499,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/27</t>
+            <t xml:space="preserve">2023/02/01</t>
           </r>
         </is>
       </c>
@@ -4508,7 +4508,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13:56:11</t>
+            <t xml:space="preserve">06:03:02</t>
           </r>
         </is>
       </c>
@@ -4517,7 +4517,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(T)</t>
+            <t xml:space="preserve">LUCY-(M)</t>
           </r>
         </is>
       </c>
@@ -4526,7 +4526,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VIERNES</t>
+            <t xml:space="preserve">MIERCOLES</t>
           </r>
         </is>
       </c>
@@ -4535,7 +4535,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1384000</t>
+            <t xml:space="preserve">483000</t>
           </r>
         </is>
       </c>
@@ -4544,7 +4544,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">15000</t>
+            <t xml:space="preserve">305000</t>
           </r>
         </is>
       </c>
@@ -4553,7 +4553,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1369000</t>
+            <t xml:space="preserve">178000</t>
           </r>
         </is>
       </c>
@@ -4564,7 +4564,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7268</t>
+            <t xml:space="preserve">1307</t>
           </r>
         </is>
       </c>
@@ -4573,7 +4573,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/27</t>
+            <t xml:space="preserve">2023/02/01</t>
           </r>
         </is>
       </c>
@@ -4582,7 +4582,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">21:53:19</t>
+            <t xml:space="preserve">13:58:03</t>
           </r>
         </is>
       </c>
@@ -4591,7 +4591,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
+            <t xml:space="preserve">JUAN-(T)</t>
           </r>
         </is>
       </c>
@@ -4600,7 +4600,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VIERNES</t>
+            <t xml:space="preserve">MIERCOLES</t>
           </r>
         </is>
       </c>
@@ -4609,7 +4609,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">584000</t>
+            <t xml:space="preserve">1748000</t>
           </r>
         </is>
       </c>
@@ -4627,7 +4627,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">584000</t>
+            <t xml:space="preserve">1748000</t>
           </r>
         </is>
       </c>
@@ -4638,7 +4638,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7161</t>
+            <t xml:space="preserve">1345</t>
           </r>
         </is>
       </c>
@@ -4647,7 +4647,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/26</t>
+            <t xml:space="preserve">2023/02/01</t>
           </r>
         </is>
       </c>
@@ -4656,7 +4656,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">06:01:55</t>
+            <t xml:space="preserve">21:57:24</t>
           </r>
         </is>
       </c>
@@ -4665,7 +4665,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(M)</t>
+            <t xml:space="preserve">CARLOS-(N)</t>
           </r>
         </is>
       </c>
@@ -4674,7 +4674,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JUEVES</t>
+            <t xml:space="preserve">MIERCOLES</t>
           </r>
         </is>
       </c>
@@ -4683,7 +4683,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">595000</t>
+            <t xml:space="preserve">1142000</t>
           </r>
         </is>
       </c>
@@ -4692,7 +4692,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">75000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -4701,7 +4701,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">520000</t>
+            <t xml:space="preserve">1142000</t>
           </r>
         </is>
       </c>
@@ -4712,7 +4712,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7179</t>
+            <t xml:space="preserve">1203</t>
           </r>
         </is>
       </c>
@@ -4721,7 +4721,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/26</t>
+            <t xml:space="preserve">2023/01/31</t>
           </r>
         </is>
       </c>
@@ -4730,7 +4730,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13:56:22</t>
+            <t xml:space="preserve">06:08:44</t>
           </r>
         </is>
       </c>
@@ -4739,7 +4739,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(T)</t>
+            <t xml:space="preserve">LUCY-(M)</t>
           </r>
         </is>
       </c>
@@ -4748,7 +4748,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JUEVES</t>
+            <t xml:space="preserve">MARTES</t>
           </r>
         </is>
       </c>
@@ -4757,7 +4757,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">835000</t>
+            <t xml:space="preserve">805000</t>
           </r>
         </is>
       </c>
@@ -4766,7 +4766,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10000</t>
+            <t xml:space="preserve">20000</t>
           </r>
         </is>
       </c>
@@ -4775,7 +4775,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">825000</t>
+            <t xml:space="preserve">785000</t>
           </r>
         </is>
       </c>
@@ -4786,7 +4786,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7199</t>
+            <t xml:space="preserve">1221</t>
           </r>
         </is>
       </c>
@@ -4795,7 +4795,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/26</t>
+            <t xml:space="preserve">2023/01/31</t>
           </r>
         </is>
       </c>
@@ -4804,7 +4804,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">21:51:40</t>
+            <t xml:space="preserve">14:02:11</t>
           </r>
         </is>
       </c>
@@ -4813,7 +4813,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
+            <t xml:space="preserve">JUAN-(T)</t>
           </r>
         </is>
       </c>
@@ -4822,7 +4822,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JUEVES</t>
+            <t xml:space="preserve">MARTES</t>
           </r>
         </is>
       </c>
@@ -4831,7 +4831,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">736000</t>
+            <t xml:space="preserve">2220000</t>
           </r>
         </is>
       </c>
@@ -4849,7 +4849,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">736000</t>
+            <t xml:space="preserve">2220000</t>
           </r>
         </is>
       </c>
@@ -4860,7 +4860,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7085</t>
+            <t xml:space="preserve">1266</t>
           </r>
         </is>
       </c>
@@ -4869,7 +4869,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/25</t>
+            <t xml:space="preserve">2023/01/31</t>
           </r>
         </is>
       </c>
@@ -4878,7 +4878,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">05:56:51</t>
+            <t xml:space="preserve">22:00:41</t>
           </r>
         </is>
       </c>
@@ -4887,7 +4887,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(M)</t>
+            <t xml:space="preserve">CARLOS-(N)</t>
           </r>
         </is>
       </c>
@@ -4896,7 +4896,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MIERCOLES</t>
+            <t xml:space="preserve">MARTES</t>
           </r>
         </is>
       </c>
@@ -4905,7 +4905,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">685000</t>
+            <t xml:space="preserve">764000</t>
           </r>
         </is>
       </c>
@@ -4914,7 +4914,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">125000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -4923,7 +4923,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">560000</t>
+            <t xml:space="preserve">764000</t>
           </r>
         </is>
       </c>
@@ -4934,7 +4934,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7112</t>
+            <t xml:space="preserve">1126</t>
           </r>
         </is>
       </c>
@@ -4943,7 +4943,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/25</t>
+            <t xml:space="preserve">2023/01/30</t>
           </r>
         </is>
       </c>
@@ -4952,7 +4952,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">14:00:08</t>
+            <t xml:space="preserve">06:11:46</t>
           </r>
         </is>
       </c>
@@ -4961,7 +4961,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(T)</t>
+            <t xml:space="preserve">LUCY-(M)</t>
           </r>
         </is>
       </c>
@@ -4970,7 +4970,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MIERCOLES</t>
+            <t xml:space="preserve">LUNES</t>
           </r>
         </is>
       </c>
@@ -4979,7 +4979,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1946000</t>
+            <t xml:space="preserve">646000</t>
           </r>
         </is>
       </c>
@@ -4988,7 +4988,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">20000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -4997,7 +4997,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1926000</t>
+            <t xml:space="preserve">646000</t>
           </r>
         </is>
       </c>
@@ -5008,7 +5008,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7145</t>
+            <t xml:space="preserve">1139</t>
           </r>
         </is>
       </c>
@@ -5017,7 +5017,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/25</t>
+            <t xml:space="preserve">2023/01/30</t>
           </r>
         </is>
       </c>
@@ -5026,7 +5026,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">21:57:31</t>
+            <t xml:space="preserve">14:05:33</t>
           </r>
         </is>
       </c>
@@ -5035,7 +5035,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
+            <t xml:space="preserve">JUAN-(T)</t>
           </r>
         </is>
       </c>
@@ -5044,7 +5044,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MIERCOLES</t>
+            <t xml:space="preserve">LUNES</t>
           </r>
         </is>
       </c>
@@ -5053,7 +5053,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">360000</t>
+            <t xml:space="preserve">2098000</t>
           </r>
         </is>
       </c>
@@ -5071,7 +5071,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">360000</t>
+            <t xml:space="preserve">2098000</t>
           </r>
         </is>
       </c>
@@ -5082,7 +5082,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7029</t>
+            <t xml:space="preserve">1180</t>
           </r>
         </is>
       </c>
@@ -5091,7 +5091,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/24</t>
+            <t xml:space="preserve">2023/01/30</t>
           </r>
         </is>
       </c>
@@ -5100,7 +5100,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">06:03:38</t>
+            <t xml:space="preserve">22:00:58</t>
           </r>
         </is>
       </c>
@@ -5109,7 +5109,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JHON-(M)</t>
+            <t xml:space="preserve">CARLOS-(N)</t>
           </r>
         </is>
       </c>
@@ -5118,7 +5118,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MARTES</t>
+            <t xml:space="preserve">LUNES</t>
           </r>
         </is>
       </c>
@@ -5127,7 +5127,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">640000</t>
+            <t xml:space="preserve">1252000</t>
           </r>
         </is>
       </c>
@@ -5136,7 +5136,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">90000</t>
+            <t xml:space="preserve">135000</t>
           </r>
         </is>
       </c>
@@ -5145,7 +5145,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">550000</t>
+            <t xml:space="preserve">1117000</t>
           </r>
         </is>
       </c>
@@ -5156,7 +5156,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7072</t>
+            <t xml:space="preserve">1048</t>
           </r>
         </is>
       </c>
@@ -5165,7 +5165,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/24</t>
+            <t xml:space="preserve">2023/01/29</t>
           </r>
         </is>
       </c>
@@ -5174,7 +5174,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">21:50:21</t>
+            <t xml:space="preserve">06:02:22</t>
           </r>
         </is>
       </c>
@@ -5183,7 +5183,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(N)</t>
+            <t xml:space="preserve">LUCY-(M)</t>
           </r>
         </is>
       </c>
@@ -5192,7 +5192,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MARTES</t>
+            <t xml:space="preserve">DOMINGO</t>
           </r>
         </is>
       </c>
@@ -5201,7 +5201,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">376000</t>
+            <t xml:space="preserve">1406000</t>
           </r>
         </is>
       </c>
@@ -5210,7 +5210,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">50000</t>
           </r>
         </is>
       </c>
@@ -5219,7 +5219,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">376000</t>
+            <t xml:space="preserve">1356000</t>
           </r>
         </is>
       </c>
@@ -5230,7 +5230,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6964</t>
+            <t xml:space="preserve">1076</t>
           </r>
         </is>
       </c>
@@ -5239,7 +5239,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/23</t>
+            <t xml:space="preserve">2023/01/29</t>
           </r>
         </is>
       </c>
@@ -5248,7 +5248,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">06:02:00</t>
+            <t xml:space="preserve">17:55:40</t>
           </r>
         </is>
       </c>
@@ -5257,7 +5257,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(M)</t>
+            <t xml:space="preserve">CARLOS-(T)</t>
           </r>
         </is>
       </c>
@@ -5266,7 +5266,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">LUNES</t>
+            <t xml:space="preserve">DOMINGO</t>
           </r>
         </is>
       </c>
@@ -5275,7 +5275,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">897000</t>
+            <t xml:space="preserve">1933000</t>
           </r>
         </is>
       </c>
@@ -5284,7 +5284,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -5293,7 +5293,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">892000</t>
+            <t xml:space="preserve">1933000</t>
           </r>
         </is>
       </c>
@@ -5304,7 +5304,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6982</t>
+            <t xml:space="preserve">927</t>
           </r>
         </is>
       </c>
@@ -5313,7 +5313,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/23</t>
+            <t xml:space="preserve">2023/01/28</t>
           </r>
         </is>
       </c>
@@ -5322,7 +5322,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13:52:52</t>
+            <t xml:space="preserve">06:05:34</t>
           </r>
         </is>
       </c>
@@ -5331,7 +5331,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(T)</t>
+            <t xml:space="preserve">LUCY-(M)</t>
           </r>
         </is>
       </c>
@@ -5340,7 +5340,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">LUNES</t>
+            <t xml:space="preserve">SABADO</t>
           </r>
         </is>
       </c>
@@ -5349,7 +5349,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">897000</t>
+            <t xml:space="preserve">743000</t>
           </r>
         </is>
       </c>
@@ -5358,7 +5358,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -5367,7 +5367,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">892000</t>
+            <t xml:space="preserve">743000</t>
           </r>
         </is>
       </c>
@@ -5378,7 +5378,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6983</t>
+            <t xml:space="preserve">949</t>
           </r>
         </is>
       </c>
@@ -5387,7 +5387,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/23</t>
+            <t xml:space="preserve">2023/01/28</t>
           </r>
         </is>
       </c>
@@ -5396,7 +5396,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13:56:32</t>
+            <t xml:space="preserve">13:57:40</t>
           </r>
         </is>
       </c>
@@ -5405,7 +5405,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(T)</t>
+            <t xml:space="preserve">CARLOS-(T)</t>
           </r>
         </is>
       </c>
@@ -5414,7 +5414,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">LUNES</t>
+            <t xml:space="preserve">SABADO</t>
           </r>
         </is>
       </c>
@@ -5423,7 +5423,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1533000</t>
+            <t xml:space="preserve">1846000</t>
           </r>
         </is>
       </c>
@@ -5432,7 +5432,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">20000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -5441,7 +5441,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1513000</t>
+            <t xml:space="preserve">1846000</t>
           </r>
         </is>
       </c>
@@ -5452,7 +5452,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7017</t>
+            <t xml:space="preserve">993</t>
           </r>
         </is>
       </c>
@@ -5461,7 +5461,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/23</t>
+            <t xml:space="preserve">2023/01/28</t>
           </r>
         </is>
       </c>
@@ -5470,7 +5470,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">21:58:19</t>
+            <t xml:space="preserve">21:58:59</t>
           </r>
         </is>
       </c>
@@ -5479,7 +5479,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
+            <t xml:space="preserve">JUAN-(N)</t>
           </r>
         </is>
       </c>
@@ -5488,7 +5488,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">LUNES</t>
+            <t xml:space="preserve">SABADO</t>
           </r>
         </is>
       </c>
@@ -5497,7 +5497,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">401000</t>
+            <t xml:space="preserve">2186000</t>
           </r>
         </is>
       </c>
@@ -5515,7 +5515,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">401000</t>
+            <t xml:space="preserve">2186000</t>
           </r>
         </is>
       </c>
@@ -5526,7 +5526,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6896</t>
+            <t xml:space="preserve">832</t>
           </r>
         </is>
       </c>
@@ -5535,7 +5535,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/22</t>
+            <t xml:space="preserve">2023/01/27</t>
           </r>
         </is>
       </c>
@@ -5544,7 +5544,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">06:04:13</t>
+            <t xml:space="preserve">06:04:47</t>
           </r>
         </is>
       </c>
@@ -5553,7 +5553,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(M)</t>
+            <t xml:space="preserve">LUCY-(M)</t>
           </r>
         </is>
       </c>
@@ -5562,7 +5562,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">DOMINGO</t>
+            <t xml:space="preserve">VIERNES</t>
           </r>
         </is>
       </c>
@@ -5571,7 +5571,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1599000</t>
+            <t xml:space="preserve">500000</t>
           </r>
         </is>
       </c>
@@ -5580,7 +5580,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -5589,7 +5589,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1594000</t>
+            <t xml:space="preserve">500000</t>
           </r>
         </is>
       </c>
@@ -5600,7 +5600,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6919</t>
+            <t xml:space="preserve">846</t>
           </r>
         </is>
       </c>
@@ -5609,7 +5609,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/22</t>
+            <t xml:space="preserve">2023/01/27</t>
           </r>
         </is>
       </c>
@@ -5618,7 +5618,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13:52:05</t>
+            <t xml:space="preserve">13:57:28</t>
           </r>
         </is>
       </c>
@@ -5627,7 +5627,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(T)</t>
+            <t xml:space="preserve">CARLOS-(T)</t>
           </r>
         </is>
       </c>
@@ -5636,7 +5636,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">DOMINGO</t>
+            <t xml:space="preserve">VIERNES</t>
           </r>
         </is>
       </c>
@@ -5645,7 +5645,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">992000</t>
+            <t xml:space="preserve">2457000</t>
           </r>
         </is>
       </c>
@@ -5654,7 +5654,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10000</t>
+            <t xml:space="preserve">100000</t>
           </r>
         </is>
       </c>
@@ -5663,7 +5663,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">982000</t>
+            <t xml:space="preserve">2357000</t>
           </r>
         </is>
       </c>
@@ -5674,7 +5674,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6941</t>
+            <t xml:space="preserve">896</t>
           </r>
         </is>
       </c>
@@ -5683,7 +5683,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/22</t>
+            <t xml:space="preserve">2023/01/27</t>
           </r>
         </is>
       </c>
@@ -5692,7 +5692,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">22:01:05</t>
+            <t xml:space="preserve">22:02:30</t>
           </r>
         </is>
       </c>
@@ -5701,7 +5701,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
+            <t xml:space="preserve">JUAN-(N)</t>
           </r>
         </is>
       </c>
@@ -5710,7 +5710,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">DOMINGO</t>
+            <t xml:space="preserve">VIERNES</t>
           </r>
         </is>
       </c>
@@ -5719,7 +5719,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2663000</t>
+            <t xml:space="preserve">1009000</t>
           </r>
         </is>
       </c>
@@ -5728,7 +5728,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">185000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -5737,7 +5737,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2478000</t>
+            <t xml:space="preserve">1009000</t>
           </r>
         </is>
       </c>
@@ -5748,7 +5748,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6755</t>
+            <t xml:space="preserve">748</t>
           </r>
         </is>
       </c>
@@ -5757,7 +5757,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/21</t>
+            <t xml:space="preserve">2023/01/26</t>
           </r>
         </is>
       </c>
@@ -5766,7 +5766,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">05:57:03</t>
+            <t xml:space="preserve">05:55:00</t>
           </r>
         </is>
       </c>
@@ -5775,7 +5775,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(M)</t>
+            <t xml:space="preserve">LUCY-(M)</t>
           </r>
         </is>
       </c>
@@ -5784,7 +5784,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SABADO</t>
+            <t xml:space="preserve">JUEVES</t>
           </r>
         </is>
       </c>
@@ -5793,7 +5793,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1227000</t>
+            <t xml:space="preserve">340000</t>
           </r>
         </is>
       </c>
@@ -5802,7 +5802,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">50000</t>
+            <t xml:space="preserve">275000</t>
           </r>
         </is>
       </c>
@@ -5811,7 +5811,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1177000</t>
+            <t xml:space="preserve">65000</t>
           </r>
         </is>
       </c>
@@ -5822,7 +5822,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6786</t>
+            <t xml:space="preserve">762</t>
           </r>
         </is>
       </c>
@@ -5831,7 +5831,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/21</t>
+            <t xml:space="preserve">2023/01/26</t>
           </r>
         </is>
       </c>
@@ -5840,7 +5840,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13:55:51</t>
+            <t xml:space="preserve">13:58:21</t>
           </r>
         </is>
       </c>
@@ -5849,7 +5849,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(T)</t>
+            <t xml:space="preserve">CARLOS-(T)</t>
           </r>
         </is>
       </c>
@@ -5858,7 +5858,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SABADO</t>
+            <t xml:space="preserve">JUEVES</t>
           </r>
         </is>
       </c>
@@ -5867,7 +5867,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2223000</t>
+            <t xml:space="preserve">1824000</t>
           </r>
         </is>
       </c>
@@ -5876,7 +5876,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">220000</t>
+            <t xml:space="preserve">100000</t>
           </r>
         </is>
       </c>
@@ -5885,7 +5885,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2003000</t>
+            <t xml:space="preserve">1724000</t>
           </r>
         </is>
       </c>
@@ -5896,7 +5896,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6845</t>
+            <t xml:space="preserve">805</t>
           </r>
         </is>
       </c>
@@ -5905,7 +5905,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/21</t>
+            <t xml:space="preserve">2023/01/26</t>
           </r>
         </is>
       </c>
@@ -5914,7 +5914,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">22:00:32</t>
+            <t xml:space="preserve">21:58:04</t>
           </r>
         </is>
       </c>
@@ -5923,7 +5923,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
+            <t xml:space="preserve">JUAN-(N)</t>
           </r>
         </is>
       </c>
@@ -5932,7 +5932,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SABADO</t>
+            <t xml:space="preserve">JUEVES</t>
           </r>
         </is>
       </c>
@@ -5941,7 +5941,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">826000</t>
+            <t xml:space="preserve">1309000</t>
           </r>
         </is>
       </c>
@@ -5959,7 +5959,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">826000</t>
+            <t xml:space="preserve">1309000</t>
           </r>
         </is>
       </c>
@@ -5970,7 +5970,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6675</t>
+            <t xml:space="preserve">661</t>
           </r>
         </is>
       </c>
@@ -5979,7 +5979,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/20</t>
+            <t xml:space="preserve">2023/01/25</t>
           </r>
         </is>
       </c>
@@ -5988,7 +5988,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">05:57:10</t>
+            <t xml:space="preserve">06:06:57</t>
           </r>
         </is>
       </c>
@@ -5997,7 +5997,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(M)</t>
+            <t xml:space="preserve">LUCY-(M)</t>
           </r>
         </is>
       </c>
@@ -6006,7 +6006,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VIERNES</t>
+            <t xml:space="preserve">MIERCOLES</t>
           </r>
         </is>
       </c>
@@ -6015,7 +6015,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1276000</t>
+            <t xml:space="preserve">614000</t>
           </r>
         </is>
       </c>
@@ -6024,7 +6024,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">190000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -6033,7 +6033,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1086000</t>
+            <t xml:space="preserve">614000</t>
           </r>
         </is>
       </c>
@@ -6044,7 +6044,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6705</t>
+            <t xml:space="preserve">677</t>
           </r>
         </is>
       </c>
@@ -6053,7 +6053,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/20</t>
+            <t xml:space="preserve">2023/01/25</t>
           </r>
         </is>
       </c>
@@ -6062,7 +6062,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13:59:13</t>
+            <t xml:space="preserve">13:54:43</t>
           </r>
         </is>
       </c>
@@ -6071,7 +6071,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(T)</t>
+            <t xml:space="preserve">CARLOS-(T)</t>
           </r>
         </is>
       </c>
@@ -6080,7 +6080,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VIERNES</t>
+            <t xml:space="preserve">MIERCOLES</t>
           </r>
         </is>
       </c>
@@ -6089,7 +6089,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1556000</t>
+            <t xml:space="preserve">2040000</t>
           </r>
         </is>
       </c>
@@ -6098,7 +6098,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10000</t>
+            <t xml:space="preserve">68000</t>
           </r>
         </is>
       </c>
@@ -6107,7 +6107,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1546000</t>
+            <t xml:space="preserve">1972000</t>
           </r>
         </is>
       </c>
@@ -6118,7 +6118,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6741</t>
+            <t xml:space="preserve">725</t>
           </r>
         </is>
       </c>
@@ -6127,7 +6127,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/20</t>
+            <t xml:space="preserve">2023/01/25</t>
           </r>
         </is>
       </c>
@@ -6136,7 +6136,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">22:06:30</t>
+            <t xml:space="preserve">22:04:26</t>
           </r>
         </is>
       </c>
@@ -6145,7 +6145,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
+            <t xml:space="preserve">JUAN-(N)</t>
           </r>
         </is>
       </c>
@@ -6154,7 +6154,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VIERNES</t>
+            <t xml:space="preserve">MIERCOLES</t>
           </r>
         </is>
       </c>
@@ -6163,7 +6163,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">804000</t>
+            <t xml:space="preserve">1292000</t>
           </r>
         </is>
       </c>
@@ -6181,7 +6181,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">804000</t>
+            <t xml:space="preserve">1292000</t>
           </r>
         </is>
       </c>
@@ -6192,7 +6192,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6615</t>
+            <t xml:space="preserve">595</t>
           </r>
         </is>
       </c>
@@ -6201,7 +6201,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/19</t>
+            <t xml:space="preserve">2023/01/24</t>
           </r>
         </is>
       </c>
@@ -6210,7 +6210,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">05:54:53</t>
+            <t xml:space="preserve">06:07:00</t>
           </r>
         </is>
       </c>
@@ -6219,7 +6219,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(M)</t>
+            <t xml:space="preserve">LUCY-(M)</t>
           </r>
         </is>
       </c>
@@ -6228,7 +6228,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JUEVES</t>
+            <t xml:space="preserve">MARTES</t>
           </r>
         </is>
       </c>
@@ -6237,7 +6237,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">325000</t>
+            <t xml:space="preserve">334000</t>
           </r>
         </is>
       </c>
@@ -6255,7 +6255,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">325000</t>
+            <t xml:space="preserve">334000</t>
           </r>
         </is>
       </c>
@@ -6266,7 +6266,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6616</t>
+            <t xml:space="preserve">602</t>
           </r>
         </is>
       </c>
@@ -6275,7 +6275,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/19</t>
+            <t xml:space="preserve">2023/01/24</t>
           </r>
         </is>
       </c>
@@ -6284,7 +6284,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">06:04:03</t>
+            <t xml:space="preserve">13:52:44</t>
           </r>
         </is>
       </c>
@@ -6293,7 +6293,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(M)</t>
+            <t xml:space="preserve">CARLOS-(T)</t>
           </r>
         </is>
       </c>
@@ -6302,7 +6302,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JUEVES</t>
+            <t xml:space="preserve">MARTES</t>
           </r>
         </is>
       </c>
@@ -6311,7 +6311,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">445000</t>
+            <t xml:space="preserve">1712000</t>
           </r>
         </is>
       </c>
@@ -6320,7 +6320,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">65000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -6329,7 +6329,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">380000</t>
+            <t xml:space="preserve">1712000</t>
           </r>
         </is>
       </c>
@@ -6340,7 +6340,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6630</t>
+            <t xml:space="preserve">637</t>
           </r>
         </is>
       </c>
@@ -6349,7 +6349,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/19</t>
+            <t xml:space="preserve">2023/01/24</t>
           </r>
         </is>
       </c>
@@ -6358,7 +6358,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13:55:33</t>
+            <t xml:space="preserve">21:58:38</t>
           </r>
         </is>
       </c>
@@ -6367,7 +6367,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(T)</t>
+            <t xml:space="preserve">JUAN-(N)</t>
           </r>
         </is>
       </c>
@@ -6376,7 +6376,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JUEVES</t>
+            <t xml:space="preserve">MARTES</t>
           </r>
         </is>
       </c>
@@ -6385,7 +6385,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1399000</t>
+            <t xml:space="preserve">1660000</t>
           </r>
         </is>
       </c>
@@ -6394,7 +6394,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -6403,7 +6403,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1389000</t>
+            <t xml:space="preserve">1660000</t>
           </r>
         </is>
       </c>
@@ -6414,7 +6414,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6546</t>
+            <t xml:space="preserve">518</t>
           </r>
         </is>
       </c>
@@ -6423,7 +6423,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/18</t>
+            <t xml:space="preserve">2023/01/23</t>
           </r>
         </is>
       </c>
@@ -6432,7 +6432,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">05:54:27</t>
+            <t xml:space="preserve">06:05:21</t>
           </r>
         </is>
       </c>
@@ -6441,7 +6441,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(M)</t>
+            <t xml:space="preserve">LUCY-(M)</t>
           </r>
         </is>
       </c>
@@ -6450,7 +6450,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MIERCOLES</t>
+            <t xml:space="preserve">LUNES</t>
           </r>
         </is>
       </c>
@@ -6459,7 +6459,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">862000</t>
+            <t xml:space="preserve">454000</t>
           </r>
         </is>
       </c>
@@ -6468,7 +6468,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">15000</t>
+            <t xml:space="preserve">27000</t>
           </r>
         </is>
       </c>
@@ -6477,7 +6477,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">847000</t>
+            <t xml:space="preserve">427000</t>
           </r>
         </is>
       </c>
@@ -6488,7 +6488,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6570</t>
+            <t xml:space="preserve">531</t>
           </r>
         </is>
       </c>
@@ -6497,7 +6497,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/18</t>
+            <t xml:space="preserve">2023/01/23</t>
           </r>
         </is>
       </c>
@@ -6506,7 +6506,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13:54:47</t>
+            <t xml:space="preserve">13:56:21</t>
           </r>
         </is>
       </c>
@@ -6515,7 +6515,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(T)</t>
+            <t xml:space="preserve">CARLOS-(T)</t>
           </r>
         </is>
       </c>
@@ -6524,7 +6524,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MIERCOLES</t>
+            <t xml:space="preserve">LUNES</t>
           </r>
         </is>
       </c>
@@ -6533,7 +6533,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1423000</t>
+            <t xml:space="preserve">1521000</t>
           </r>
         </is>
       </c>
@@ -6542,7 +6542,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">296000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -6551,7 +6551,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1127000</t>
+            <t xml:space="preserve">1521000</t>
           </r>
         </is>
       </c>
@@ -6562,7 +6562,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6605</t>
+            <t xml:space="preserve">568</t>
           </r>
         </is>
       </c>
@@ -6571,7 +6571,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/18</t>
+            <t xml:space="preserve">2023/01/23</t>
           </r>
         </is>
       </c>
@@ -6580,7 +6580,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">22:01:47</t>
+            <t xml:space="preserve">21:58:19</t>
           </r>
         </is>
       </c>
@@ -6589,7 +6589,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
+            <t xml:space="preserve">JUAN-(N)</t>
           </r>
         </is>
       </c>
@@ -6598,7 +6598,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MIERCOLES</t>
+            <t xml:space="preserve">LUNES</t>
           </r>
         </is>
       </c>
@@ -6607,7 +6607,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">535000</t>
+            <t xml:space="preserve">1552000</t>
           </r>
         </is>
       </c>
@@ -6616,7 +6616,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -6625,7 +6625,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">530000</t>
+            <t xml:space="preserve">1552000</t>
           </r>
         </is>
       </c>
@@ -6636,7 +6636,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6487</t>
+            <t xml:space="preserve">407</t>
           </r>
         </is>
       </c>
@@ -6645,7 +6645,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/17</t>
+            <t xml:space="preserve">2023/01/22</t>
           </r>
         </is>
       </c>
@@ -6654,7 +6654,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">06:03:01</t>
+            <t xml:space="preserve">06:06:43</t>
           </r>
         </is>
       </c>
@@ -6663,7 +6663,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JHON-(M)</t>
+            <t xml:space="preserve">LUCY-(M)</t>
           </r>
         </is>
       </c>
@@ -6672,7 +6672,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MARTES</t>
+            <t xml:space="preserve">DOMINGO</t>
           </r>
         </is>
       </c>
@@ -6681,7 +6681,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">530000</t>
+            <t xml:space="preserve">1183000</t>
           </r>
         </is>
       </c>
@@ -6690,7 +6690,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">90000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -6699,7 +6699,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">440000</t>
+            <t xml:space="preserve">1183000</t>
           </r>
         </is>
       </c>
@@ -6710,7 +6710,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6502</t>
+            <t xml:space="preserve">435</t>
           </r>
         </is>
       </c>
@@ -6719,7 +6719,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/17</t>
+            <t xml:space="preserve">2023/01/22</t>
           </r>
         </is>
       </c>
@@ -6728,7 +6728,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13:56:42</t>
+            <t xml:space="preserve">13:56:01</t>
           </r>
         </is>
       </c>
@@ -6737,7 +6737,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(T)</t>
+            <t xml:space="preserve">CARLOS-(T)</t>
           </r>
         </is>
       </c>
@@ -6746,7 +6746,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MARTES</t>
+            <t xml:space="preserve">DOMINGO</t>
           </r>
         </is>
       </c>
@@ -6755,7 +6755,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1005000</t>
+            <t xml:space="preserve">4535000</t>
           </r>
         </is>
       </c>
@@ -6764,7 +6764,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">15000</t>
+            <t xml:space="preserve">90000</t>
           </r>
         </is>
       </c>
@@ -6773,7 +6773,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">990000</t>
+            <t xml:space="preserve">4445000</t>
           </r>
         </is>
       </c>
@@ -6784,7 +6784,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6527</t>
+            <t xml:space="preserve">484</t>
           </r>
         </is>
       </c>
@@ -6793,7 +6793,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/17</t>
+            <t xml:space="preserve">2023/01/22</t>
           </r>
         </is>
       </c>
@@ -6802,7 +6802,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">21:58:06</t>
+            <t xml:space="preserve">22:02:07</t>
           </r>
         </is>
       </c>
@@ -6811,7 +6811,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
+            <t xml:space="preserve">JUAN-(N)</t>
           </r>
         </is>
       </c>
@@ -6820,7 +6820,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MARTES</t>
+            <t xml:space="preserve">DOMINGO</t>
           </r>
         </is>
       </c>
@@ -6829,7 +6829,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">765000</t>
+            <t xml:space="preserve">520000</t>
           </r>
         </is>
       </c>
@@ -6847,7 +6847,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">765000</t>
+            <t xml:space="preserve">520000</t>
           </r>
         </is>
       </c>
@@ -6858,7 +6858,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6428</t>
+            <t xml:space="preserve">272</t>
           </r>
         </is>
       </c>
@@ -6867,7 +6867,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/16</t>
+            <t xml:space="preserve">2023/01/21</t>
           </r>
         </is>
       </c>
@@ -6876,7 +6876,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">05:56:53</t>
+            <t xml:space="preserve">06:02:19</t>
           </r>
         </is>
       </c>
@@ -6885,7 +6885,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(M)</t>
+            <t xml:space="preserve">JUAN-(M)</t>
           </r>
         </is>
       </c>
@@ -6894,7 +6894,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">LUNES</t>
+            <t xml:space="preserve">SABADO</t>
           </r>
         </is>
       </c>
@@ -6903,7 +6903,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">799000</t>
+            <t xml:space="preserve">770000</t>
           </r>
         </is>
       </c>
@@ -6912,7 +6912,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">45000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -6921,7 +6921,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">754000</t>
+            <t xml:space="preserve">770000</t>
           </r>
         </is>
       </c>
@@ -6932,7 +6932,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6448</t>
+            <t xml:space="preserve">291</t>
           </r>
         </is>
       </c>
@@ -6941,7 +6941,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/16</t>
+            <t xml:space="preserve">2023/01/21</t>
           </r>
         </is>
       </c>
@@ -6950,7 +6950,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">14:00:40</t>
+            <t xml:space="preserve">14:03:08</t>
           </r>
         </is>
       </c>
@@ -6959,7 +6959,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(T)</t>
+            <t xml:space="preserve">LUCY-(T)</t>
           </r>
         </is>
       </c>
@@ -6968,7 +6968,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">LUNES</t>
+            <t xml:space="preserve">SABADO</t>
           </r>
         </is>
       </c>
@@ -6977,7 +6977,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1149000</t>
+            <t xml:space="preserve">3031000</t>
           </r>
         </is>
       </c>
@@ -6986,7 +6986,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10000</t>
+            <t xml:space="preserve">100000</t>
           </r>
         </is>
       </c>
@@ -6995,7 +6995,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1139000</t>
+            <t xml:space="preserve">2931000</t>
           </r>
         </is>
       </c>
@@ -7006,7 +7006,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6476</t>
+            <t xml:space="preserve">357</t>
           </r>
         </is>
       </c>
@@ -7015,7 +7015,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/16</t>
+            <t xml:space="preserve">2023/01/21</t>
           </r>
         </is>
       </c>
@@ -7024,7 +7024,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">21:52:39</t>
+            <t xml:space="preserve">21:56:13</t>
           </r>
         </is>
       </c>
@@ -7033,7 +7033,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
+            <t xml:space="preserve">CARLOS-(N)</t>
           </r>
         </is>
       </c>
@@ -7042,7 +7042,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">LUNES</t>
+            <t xml:space="preserve">SABADO</t>
           </r>
         </is>
       </c>
@@ -7051,7 +7051,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">596000</t>
+            <t xml:space="preserve">1845000</t>
           </r>
         </is>
       </c>
@@ -7069,7 +7069,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">596000</t>
+            <t xml:space="preserve">1845000</t>
           </r>
         </is>
       </c>
@@ -7080,7 +7080,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6367</t>
+            <t xml:space="preserve">180</t>
           </r>
         </is>
       </c>
@@ -7089,7 +7089,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/15</t>
+            <t xml:space="preserve">2023/01/20</t>
           </r>
         </is>
       </c>
@@ -7098,7 +7098,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">06:07:29</t>
+            <t xml:space="preserve">06:19:25</t>
           </r>
         </is>
       </c>
@@ -7107,7 +7107,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(M)</t>
+            <t xml:space="preserve">JUAN-(M)</t>
           </r>
         </is>
       </c>
@@ -7116,7 +7116,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">DOMINGO</t>
+            <t xml:space="preserve">VIERNES</t>
           </r>
         </is>
       </c>
@@ -7125,7 +7125,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1227000</t>
+            <t xml:space="preserve">372000</t>
           </r>
         </is>
       </c>
@@ -7134,7 +7134,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -7143,7 +7143,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1222000</t>
+            <t xml:space="preserve">372000</t>
           </r>
         </is>
       </c>
@@ -7154,7 +7154,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6390</t>
+            <t xml:space="preserve">189</t>
           </r>
         </is>
       </c>
@@ -7163,7 +7163,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/15</t>
+            <t xml:space="preserve">2023/01/20</t>
           </r>
         </is>
       </c>
@@ -7172,7 +7172,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13:57:05</t>
+            <t xml:space="preserve">13:48:19</t>
           </r>
         </is>
       </c>
@@ -7181,7 +7181,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(T)</t>
+            <t xml:space="preserve">LUCY-(T)</t>
           </r>
         </is>
       </c>
@@ -7190,7 +7190,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">DOMINGO</t>
+            <t xml:space="preserve">VIERNES</t>
           </r>
         </is>
       </c>
@@ -7199,7 +7199,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">595000</t>
+            <t xml:space="preserve">1920000</t>
           </r>
         </is>
       </c>
@@ -7217,7 +7217,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">595000</t>
+            <t xml:space="preserve">1920000</t>
           </r>
         </is>
       </c>
@@ -7228,7 +7228,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6406</t>
+            <t xml:space="preserve">233</t>
           </r>
         </is>
       </c>
@@ -7237,7 +7237,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/15</t>
+            <t xml:space="preserve">2023/01/20</t>
           </r>
         </is>
       </c>
@@ -7246,7 +7246,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">20:18:41</t>
+            <t xml:space="preserve">21:56:22</t>
           </r>
         </is>
       </c>
@@ -7255,7 +7255,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(20:18)</t>
+            <t xml:space="preserve">CARLOS-(N)</t>
           </r>
         </is>
       </c>
@@ -7264,7 +7264,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">DOMINGO</t>
+            <t xml:space="preserve">VIERNES</t>
           </r>
         </is>
       </c>
@@ -7273,7 +7273,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3054000</t>
+            <t xml:space="preserve">1186000</t>
           </r>
         </is>
       </c>
@@ -7282,7 +7282,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">195000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -7291,7 +7291,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2859000</t>
+            <t xml:space="preserve">1186000</t>
           </r>
         </is>
       </c>
@@ -7302,7 +7302,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6222</t>
+            <t xml:space="preserve">80</t>
           </r>
         </is>
       </c>
@@ -7311,7 +7311,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/14</t>
+            <t xml:space="preserve">2023/01/19</t>
           </r>
         </is>
       </c>
@@ -7320,7 +7320,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">06:07:40</t>
+            <t xml:space="preserve">05:59:04</t>
           </r>
         </is>
       </c>
@@ -7329,7 +7329,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(M)</t>
+            <t xml:space="preserve">JUAN-(M)</t>
           </r>
         </is>
       </c>
@@ -7338,7 +7338,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SABADO</t>
+            <t xml:space="preserve">JUEVES</t>
           </r>
         </is>
       </c>
@@ -7347,7 +7347,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1078000</t>
+            <t xml:space="preserve">682000</t>
           </r>
         </is>
       </c>
@@ -7356,7 +7356,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">130000</t>
+            <t xml:space="preserve">70000</t>
           </r>
         </is>
       </c>
@@ -7365,7 +7365,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">948000</t>
+            <t xml:space="preserve">612000</t>
           </r>
         </is>
       </c>
@@ -7376,7 +7376,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6252</t>
+            <t xml:space="preserve">104</t>
           </r>
         </is>
       </c>
@@ -7385,7 +7385,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/14</t>
+            <t xml:space="preserve">2023/01/19</t>
           </r>
         </is>
       </c>
@@ -7394,7 +7394,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13:58:42</t>
+            <t xml:space="preserve">14:00:02</t>
           </r>
         </is>
       </c>
@@ -7403,7 +7403,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(T)</t>
+            <t xml:space="preserve">LUCY-(T)</t>
           </r>
         </is>
       </c>
@@ -7412,7 +7412,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SABADO</t>
+            <t xml:space="preserve">JUEVES</t>
           </r>
         </is>
       </c>
@@ -7421,7 +7421,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2890000</t>
+            <t xml:space="preserve">2278000</t>
           </r>
         </is>
       </c>
@@ -7430,7 +7430,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">205000</t>
+            <t xml:space="preserve">15000</t>
           </r>
         </is>
       </c>
@@ -7439,7 +7439,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2685000</t>
+            <t xml:space="preserve">2263000</t>
           </r>
         </is>
       </c>
@@ -7450,7 +7450,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6313</t>
+            <t xml:space="preserve">156</t>
           </r>
         </is>
       </c>
@@ -7459,7 +7459,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/14</t>
+            <t xml:space="preserve">2023/01/19</t>
           </r>
         </is>
       </c>
@@ -7468,7 +7468,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">21:54:46</t>
+            <t xml:space="preserve">21:55:44</t>
           </r>
         </is>
       </c>
@@ -7477,7 +7477,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
+            <t xml:space="preserve">CARLOS-(N)</t>
           </r>
         </is>
       </c>
@@ -7486,7 +7486,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SABADO</t>
+            <t xml:space="preserve">JUEVES</t>
           </r>
         </is>
       </c>
@@ -7495,7 +7495,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1028000</t>
+            <t xml:space="preserve">1675000</t>
           </r>
         </is>
       </c>
@@ -7504,7 +7504,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -7513,7 +7513,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1023000</t>
+            <t xml:space="preserve">1675000</t>
           </r>
         </is>
       </c>
@@ -7524,7 +7524,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6140</t>
+            <t xml:space="preserve">11</t>
           </r>
         </is>
       </c>
@@ -7533,7 +7533,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/13</t>
+            <t xml:space="preserve">2023/01/18</t>
           </r>
         </is>
       </c>
@@ -7542,7 +7542,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">06:00:42</t>
+            <t xml:space="preserve">11:05:47</t>
           </r>
         </is>
       </c>
@@ -7551,7 +7551,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(M)</t>
+            <t xml:space="preserve">5-(11:05)</t>
           </r>
         </is>
       </c>
@@ -7560,7 +7560,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VIERNES</t>
+            <t xml:space="preserve">MIERCOLES</t>
           </r>
         </is>
       </c>
@@ -7569,7 +7569,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1155000</t>
+            <t xml:space="preserve">1070000</t>
           </r>
         </is>
       </c>
@@ -7578,7 +7578,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -7587,7 +7587,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1145000</t>
+            <t xml:space="preserve">1070000</t>
           </r>
         </is>
       </c>
@@ -7598,7 +7598,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6165</t>
+            <t xml:space="preserve">12</t>
           </r>
         </is>
       </c>
@@ -7607,7 +7607,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/13</t>
+            <t xml:space="preserve">2023/01/18</t>
           </r>
         </is>
       </c>
@@ -7616,7 +7616,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13:56:33</t>
+            <t xml:space="preserve">11:07:05</t>
           </r>
         </is>
       </c>
@@ -7625,7 +7625,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(T)</t>
+            <t xml:space="preserve">JUAN-(11:07)</t>
           </r>
         </is>
       </c>
@@ -7634,7 +7634,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VIERNES</t>
+            <t xml:space="preserve">MIERCOLES</t>
           </r>
         </is>
       </c>
@@ -7643,7 +7643,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1685000</t>
+            <t xml:space="preserve">543000</t>
           </r>
         </is>
       </c>
@@ -7652,7 +7652,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">235000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -7661,7 +7661,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1450000</t>
+            <t xml:space="preserve">543000</t>
           </r>
         </is>
       </c>
@@ -7672,7 +7672,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6204</t>
+            <t xml:space="preserve">23</t>
           </r>
         </is>
       </c>
@@ -7681,7 +7681,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/13</t>
+            <t xml:space="preserve">2023/01/18</t>
           </r>
         </is>
       </c>
@@ -7690,7 +7690,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">21:59:41</t>
+            <t xml:space="preserve">14:03:43</t>
           </r>
         </is>
       </c>
@@ -7699,7 +7699,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
+            <t xml:space="preserve">LUCY-(T)</t>
           </r>
         </is>
       </c>
@@ -7708,7 +7708,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VIERNES</t>
+            <t xml:space="preserve">MIERCOLES</t>
           </r>
         </is>
       </c>
@@ -7717,7 +7717,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1064000</t>
+            <t xml:space="preserve">1616000</t>
           </r>
         </is>
       </c>
@@ -7726,7 +7726,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -7735,7 +7735,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1059000</t>
+            <t xml:space="preserve">1616000</t>
           </r>
         </is>
       </c>
@@ -7746,7 +7746,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6066</t>
+            <t xml:space="preserve">59</t>
           </r>
         </is>
       </c>
@@ -7755,7 +7755,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/12</t>
+            <t xml:space="preserve">2023/01/18</t>
           </r>
         </is>
       </c>
@@ -7764,7 +7764,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">06:04:20</t>
+            <t xml:space="preserve">21:54:59</t>
           </r>
         </is>
       </c>
@@ -7773,7 +7773,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NILDA-(M)</t>
+            <t xml:space="preserve">CARLOS-(N)</t>
           </r>
         </is>
       </c>
@@ -7782,7 +7782,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JUEVES</t>
+            <t xml:space="preserve">MIERCOLES</t>
           </r>
         </is>
       </c>
@@ -7791,7 +7791,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">700000</t>
+            <t xml:space="preserve">240000</t>
           </r>
         </is>
       </c>
@@ -7800,7 +7800,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">105000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -7809,7 +7809,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">595000</t>
+            <t xml:space="preserve">240000</t>
           </r>
         </is>
       </c>
@@ -7820,7 +7820,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6088</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -7829,7 +7829,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023/01/12</t>
+            <t xml:space="preserve">2023/01/17</t>
           </r>
         </is>
       </c>
@@ -7838,7 +7838,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13:52:39</t>
+            <t xml:space="preserve">12:35:47</t>
           </r>
         </is>
       </c>
@@ -7847,7 +7847,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JULIO-(T)</t>
+            <t xml:space="preserve">5-(12:35)</t>
           </r>
         </is>
       </c>
@@ -7856,7 +7856,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JUEVES</t>
+            <t xml:space="preserve">MARTES</t>
           </r>
         </is>
       </c>
@@ -7865,7 +7865,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1165000</t>
+            <t xml:space="preserve">200000</t>
           </r>
         </is>
       </c>
@@ -7874,7 +7874,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">329000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -7883,2536 +7883,20 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">836000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="106" customHeight="1" ht="20">
-      <c r="A106" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">6118</t>
-          </r>
-        </is>
-      </c>
-      <c r="B106" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/12</t>
-          </r>
-        </is>
-      </c>
-      <c r="C106" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">21:55:29</t>
-          </r>
-        </is>
-      </c>
-      <c r="D106" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E106" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">JUEVES</t>
-          </r>
-        </is>
-      </c>
-      <c r="F106" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1110000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G106" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="H106" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1110000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="107" customHeight="1" ht="20">
-      <c r="A107" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">6006</t>
-          </r>
-        </is>
-      </c>
-      <c r="B107" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/11</t>
-          </r>
-        </is>
-      </c>
-      <c r="C107" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">05:58:38</t>
-          </r>
-        </is>
-      </c>
-      <c r="D107" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">NILDA-(M)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E107" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">MIERCOLES</t>
-          </r>
-        </is>
-      </c>
-      <c r="F107" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">525000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G107" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">10000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H107" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">515000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="108" customHeight="1" ht="20">
-      <c r="A108" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">6021</t>
-          </r>
-        </is>
-      </c>
-      <c r="B108" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/11</t>
-          </r>
-        </is>
-      </c>
-      <c r="C108" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">13:52:33</t>
-          </r>
-        </is>
-      </c>
-      <c r="D108" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">JULIO-(T)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E108" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">MIERCOLES</t>
-          </r>
-        </is>
-      </c>
-      <c r="F108" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1174000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G108" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">15000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H108" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1159000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="109" customHeight="1" ht="20">
-      <c r="A109" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">6047</t>
-          </r>
-        </is>
-      </c>
-      <c r="B109" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/11</t>
-          </r>
-        </is>
-      </c>
-      <c r="C109" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">21:53:50</t>
-          </r>
-        </is>
-      </c>
-      <c r="D109" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E109" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">MIERCOLES</t>
-          </r>
-        </is>
-      </c>
-      <c r="F109" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">730000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G109" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="H109" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">730000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="110" customHeight="1" ht="20">
-      <c r="A110" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5933</t>
-          </r>
-        </is>
-      </c>
-      <c r="B110" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/10</t>
-          </r>
-        </is>
-      </c>
-      <c r="C110" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">05:48:04</t>
-          </r>
-        </is>
-      </c>
-      <c r="D110" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">JHON-(M)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E110" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">MARTES</t>
-          </r>
-        </is>
-      </c>
-      <c r="F110" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">710000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G110" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">30000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H110" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">680000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="111" customHeight="1" ht="20">
-      <c r="A111" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5956</t>
-          </r>
-        </is>
-      </c>
-      <c r="B111" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/10</t>
-          </r>
-        </is>
-      </c>
-      <c r="C111" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">13:52:57</t>
-          </r>
-        </is>
-      </c>
-      <c r="D111" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">JULIO-(T)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E111" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">MARTES</t>
-          </r>
-        </is>
-      </c>
-      <c r="F111" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1553000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G111" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">20000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H111" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1533000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="112" customHeight="1" ht="20">
-      <c r="A112" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5992</t>
-          </r>
-        </is>
-      </c>
-      <c r="B112" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/10</t>
-          </r>
-        </is>
-      </c>
-      <c r="C112" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">21:53:27</t>
-          </r>
-        </is>
-      </c>
-      <c r="D112" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E112" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">MARTES</t>
-          </r>
-        </is>
-      </c>
-      <c r="F112" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">647000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G112" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">10000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H112" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">637000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="113" customHeight="1" ht="20">
-      <c r="A113" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5881</t>
-          </r>
-        </is>
-      </c>
-      <c r="B113" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/09</t>
-          </r>
-        </is>
-      </c>
-      <c r="C113" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">05:55:25</t>
-          </r>
-        </is>
-      </c>
-      <c r="D113" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">NILDA-(M)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E113" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">LUNES</t>
-          </r>
-        </is>
-      </c>
-      <c r="F113" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">498000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G113" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H113" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">493000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="114" customHeight="1" ht="20">
-      <c r="A114" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5894</t>
-          </r>
-        </is>
-      </c>
-      <c r="B114" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/09</t>
-          </r>
-        </is>
-      </c>
-      <c r="C114" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">13:51:20</t>
-          </r>
-        </is>
-      </c>
-      <c r="D114" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">JULIO-(T)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E114" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">LUNES</t>
-          </r>
-        </is>
-      </c>
-      <c r="F114" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1226000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G114" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">10000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H114" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1216000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="115" customHeight="1" ht="20">
-      <c r="A115" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5921</t>
-          </r>
-        </is>
-      </c>
-      <c r="B115" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/09</t>
-          </r>
-        </is>
-      </c>
-      <c r="C115" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">21:55:02</t>
-          </r>
-        </is>
-      </c>
-      <c r="D115" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E115" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">LUNES</t>
-          </r>
-        </is>
-      </c>
-      <c r="F115" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">431000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G115" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="H115" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">431000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="116" customHeight="1" ht="20">
-      <c r="A116" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5816</t>
-          </r>
-        </is>
-      </c>
-      <c r="B116" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/08</t>
-          </r>
-        </is>
-      </c>
-      <c r="C116" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">06:00:31</t>
-          </r>
-        </is>
-      </c>
-      <c r="D116" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">NILDA-(M)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E116" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">DOMINGO</t>
-          </r>
-        </is>
-      </c>
-      <c r="F116" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1148000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G116" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">10000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H116" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1138000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="117" customHeight="1" ht="20">
-      <c r="A117" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5837</t>
-          </r>
-        </is>
-      </c>
-      <c r="B117" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/08</t>
-          </r>
-        </is>
-      </c>
-      <c r="C117" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">13:48:33</t>
-          </r>
-        </is>
-      </c>
-      <c r="D117" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">JULIO-(T)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E117" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">DOMINGO</t>
-          </r>
-        </is>
-      </c>
-      <c r="F117" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">985000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G117" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">10000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H117" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">975000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="118" customHeight="1" ht="20">
-      <c r="A118" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5860</t>
-          </r>
-        </is>
-      </c>
-      <c r="B118" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/08</t>
-          </r>
-        </is>
-      </c>
-      <c r="C118" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">21:58:44</t>
-          </r>
-        </is>
-      </c>
-      <c r="D118" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E118" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">DOMINGO</t>
-          </r>
-        </is>
-      </c>
-      <c r="F118" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2449000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G118" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">180000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H118" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2269000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="119" customHeight="1" ht="20">
-      <c r="A119" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5705</t>
-          </r>
-        </is>
-      </c>
-      <c r="B119" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/07</t>
-          </r>
-        </is>
-      </c>
-      <c r="C119" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">05:57:52</t>
-          </r>
-        </is>
-      </c>
-      <c r="D119" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">JULIO-(M)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E119" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">SABADO</t>
-          </r>
-        </is>
-      </c>
-      <c r="F119" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">950000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G119" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">215000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H119" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">735000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="120" customHeight="1" ht="20">
-      <c r="A120" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5732</t>
-          </r>
-        </is>
-      </c>
-      <c r="B120" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/07</t>
-          </r>
-        </is>
-      </c>
-      <c r="C120" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">13:59:30</t>
-          </r>
-        </is>
-      </c>
-      <c r="D120" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">NILDA-(T)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E120" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">SABADO</t>
-          </r>
-        </is>
-      </c>
-      <c r="F120" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1661000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G120" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
             <t xml:space="preserve">200000</t>
           </r>
         </is>
       </c>
-      <c r="H120" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1461000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="121" customHeight="1" ht="20">
-      <c r="A121" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5773</t>
-          </r>
-        </is>
-      </c>
-      <c r="B121" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/07</t>
-          </r>
-        </is>
-      </c>
-      <c r="C121" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">22:01:20</t>
-          </r>
-        </is>
-      </c>
-      <c r="D121" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E121" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">SABADO</t>
-          </r>
-        </is>
-      </c>
-      <c r="F121" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">734000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G121" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="H121" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">734000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="122" customHeight="1" ht="20">
-      <c r="A122" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5639</t>
-          </r>
-        </is>
-      </c>
-      <c r="B122" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/06</t>
-          </r>
-        </is>
-      </c>
-      <c r="C122" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">05:52:49</t>
-          </r>
-        </is>
-      </c>
-      <c r="D122" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">JHON-(M)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E122" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">VIERNES</t>
-          </r>
-        </is>
-      </c>
-      <c r="F122" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">574000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G122" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="H122" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">574000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="123" customHeight="1" ht="20">
-      <c r="A123" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5651</t>
-          </r>
-        </is>
-      </c>
-      <c r="B123" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/06</t>
-          </r>
-        </is>
-      </c>
-      <c r="C123" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">13:48:11</t>
-          </r>
-        </is>
-      </c>
-      <c r="D123" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">JULIO-(T)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E123" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">VIERNES</t>
-          </r>
-        </is>
-      </c>
-      <c r="F123" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1446000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G123" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">50000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H123" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1396000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="124" customHeight="1" ht="20">
-      <c r="A124" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5686</t>
-          </r>
-        </is>
-      </c>
-      <c r="B124" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/06</t>
-          </r>
-        </is>
-      </c>
-      <c r="C124" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">21:51:40</t>
-          </r>
-        </is>
-      </c>
-      <c r="D124" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E124" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">VIERNES</t>
-          </r>
-        </is>
-      </c>
-      <c r="F124" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">914000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G124" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="H124" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">914000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="125" customHeight="1" ht="20">
-      <c r="A125" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5569</t>
-          </r>
-        </is>
-      </c>
-      <c r="B125" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/05</t>
-          </r>
-        </is>
-      </c>
-      <c r="C125" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">05:58:49</t>
-          </r>
-        </is>
-      </c>
-      <c r="D125" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">JULIO-(M)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E125" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">JUEVES</t>
-          </r>
-        </is>
-      </c>
-      <c r="F125" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">953000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G125" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">290000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H125" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">663000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="126" customHeight="1" ht="20">
-      <c r="A126" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5595</t>
-          </r>
-        </is>
-      </c>
-      <c r="B126" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/05</t>
-          </r>
-        </is>
-      </c>
-      <c r="C126" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">14:01:28</t>
-          </r>
-        </is>
-      </c>
-      <c r="D126" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">NILDA-(T)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E126" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">JUEVES</t>
-          </r>
-        </is>
-      </c>
-      <c r="F126" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1271000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G126" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">10000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H126" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1261000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="127" customHeight="1" ht="20">
-      <c r="A127" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5625</t>
-          </r>
-        </is>
-      </c>
-      <c r="B127" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/05</t>
-          </r>
-        </is>
-      </c>
-      <c r="C127" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">21:59:11</t>
-          </r>
-        </is>
-      </c>
-      <c r="D127" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E127" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">JUEVES</t>
-          </r>
-        </is>
-      </c>
-      <c r="F127" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">544000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G127" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="H127" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">544000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="128" customHeight="1" ht="20">
-      <c r="A128" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5518</t>
-          </r>
-        </is>
-      </c>
-      <c r="B128" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/04</t>
-          </r>
-        </is>
-      </c>
-      <c r="C128" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">05:59:35</t>
-          </r>
-        </is>
-      </c>
-      <c r="D128" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">NILDA-(M)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E128" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">MIERCOLES</t>
-          </r>
-        </is>
-      </c>
-      <c r="F128" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">393000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G128" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">30000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H128" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">363000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="129" customHeight="1" ht="20">
-      <c r="A129" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5532</t>
-          </r>
-        </is>
-      </c>
-      <c r="B129" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/04</t>
-          </r>
-        </is>
-      </c>
-      <c r="C129" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">13:51:51</t>
-          </r>
-        </is>
-      </c>
-      <c r="D129" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">JULIO-(T)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E129" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">MIERCOLES</t>
-          </r>
-        </is>
-      </c>
-      <c r="F129" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1198000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G129" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">15000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H129" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1183000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="130" customHeight="1" ht="20">
-      <c r="A130" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5556</t>
-          </r>
-        </is>
-      </c>
-      <c r="B130" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/04</t>
-          </r>
-        </is>
-      </c>
-      <c r="C130" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">21:57:31</t>
-          </r>
-        </is>
-      </c>
-      <c r="D130" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E130" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">MIERCOLES</t>
-          </r>
-        </is>
-      </c>
-      <c r="F130" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">109000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G130" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="H130" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">109000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="131" customHeight="1" ht="20">
-      <c r="A131" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5455</t>
-          </r>
-        </is>
-      </c>
-      <c r="B131" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/03</t>
-          </r>
-        </is>
-      </c>
-      <c r="C131" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">05:46:24</t>
-          </r>
-        </is>
-      </c>
-      <c r="D131" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">JHON-(M)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E131" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">MARTES</t>
-          </r>
-        </is>
-      </c>
-      <c r="F131" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">385000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G131" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="H131" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">385000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="132" customHeight="1" ht="20">
-      <c r="A132" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5468</t>
-          </r>
-        </is>
-      </c>
-      <c r="B132" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/03</t>
-          </r>
-        </is>
-      </c>
-      <c r="C132" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">13:55:12</t>
-          </r>
-        </is>
-      </c>
-      <c r="D132" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">NILDA-(T)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E132" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">MARTES</t>
-          </r>
-        </is>
-      </c>
-      <c r="F132" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1208000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G132" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">305000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H132" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">903000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="133" customHeight="1" ht="20">
-      <c r="A133" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5499</t>
-          </r>
-        </is>
-      </c>
-      <c r="B133" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/03</t>
-          </r>
-        </is>
-      </c>
-      <c r="C133" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">21:46:14</t>
-          </r>
-        </is>
-      </c>
-      <c r="D133" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">JULIO-(N)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E133" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">MARTES</t>
-          </r>
-        </is>
-      </c>
-      <c r="F133" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">574000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G133" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="H133" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">574000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="134" customHeight="1" ht="20">
-      <c r="A134" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5396</t>
-          </r>
-        </is>
-      </c>
-      <c r="B134" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/02</t>
-          </r>
-        </is>
-      </c>
-      <c r="C134" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">06:04:25</t>
-          </r>
-        </is>
-      </c>
-      <c r="D134" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">JULIO-(M)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E134" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">LUNES</t>
-          </r>
-        </is>
-      </c>
-      <c r="F134" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">410000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G134" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">340000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H134" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">70000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="135" customHeight="1" ht="20">
-      <c r="A135" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5414</t>
-          </r>
-        </is>
-      </c>
-      <c r="B135" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/02</t>
-          </r>
-        </is>
-      </c>
-      <c r="C135" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">13:56:08</t>
-          </r>
-        </is>
-      </c>
-      <c r="D135" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">NILDA-(T)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E135" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">LUNES</t>
-          </r>
-        </is>
-      </c>
-      <c r="F135" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1226000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G135" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">315000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H135" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">911000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="136" customHeight="1" ht="20">
-      <c r="A136" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5445</t>
-          </r>
-        </is>
-      </c>
-      <c r="B136" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/02</t>
-          </r>
-        </is>
-      </c>
-      <c r="C136" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">21:57:28</t>
-          </r>
-        </is>
-      </c>
-      <c r="D136" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E136" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">LUNES</t>
-          </r>
-        </is>
-      </c>
-      <c r="F136" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">404000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G136" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="H136" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">404000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="137" customHeight="1" ht="20">
-      <c r="A137" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5353</t>
-          </r>
-        </is>
-      </c>
-      <c r="B137" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/01</t>
-          </r>
-        </is>
-      </c>
-      <c r="C137" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">06:00:54</t>
-          </r>
-        </is>
-      </c>
-      <c r="D137" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">NILDA-(M)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E137" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">DOMINGO</t>
-          </r>
-        </is>
-      </c>
-      <c r="F137" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">846000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G137" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="H137" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">846000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="138" customHeight="1" ht="20">
-      <c r="A138" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5369</t>
-          </r>
-        </is>
-      </c>
-      <c r="B138" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/01</t>
-          </r>
-        </is>
-      </c>
-      <c r="C138" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">13:58:54</t>
-          </r>
-        </is>
-      </c>
-      <c r="D138" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">JULIO-(T)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E138" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">DOMINGO</t>
-          </r>
-        </is>
-      </c>
-      <c r="F138" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1764000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G138" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">110000</t>
-          </r>
-        </is>
-      </c>
-      <c r="H138" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1654000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="139" customHeight="1" ht="20">
-      <c r="A139" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">5386</t>
-          </r>
-        </is>
-      </c>
-      <c r="B139" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023/01/01</t>
-          </r>
-        </is>
-      </c>
-      <c r="C139" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">21:56:11</t>
-          </r>
-        </is>
-      </c>
-      <c r="D139" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">OSMAR-(N)</t>
-          </r>
-        </is>
-      </c>
-      <c r="E139" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">DOMINGO</t>
-          </r>
-        </is>
-      </c>
-      <c r="F139" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">286000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G139" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="H139" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">286000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="140" customHeight="1" ht="575">
-      <c r="A140" s="2" t="inlineStr"/>
-      <c r="B140" s="2" t="inlineStr"/>
-      <c r="C140" s="2" t="inlineStr"/>
-      <c r="D140" s="2" t="inlineStr"/>
-      <c r="E140" s="2" t="inlineStr"/>
-      <c r="F140" s="2" t="inlineStr"/>
-      <c r="G140" s="2" t="inlineStr"/>
-      <c r="H140" s="2" t="inlineStr"/>
+    </row>
+    <row r="106" customHeight="1" ht="575">
+      <c r="A106" s="2" t="inlineStr"/>
+      <c r="B106" s="2" t="inlineStr"/>
+      <c r="C106" s="2" t="inlineStr"/>
+      <c r="D106" s="2" t="inlineStr"/>
+      <c r="E106" s="2" t="inlineStr"/>
+      <c r="F106" s="2" t="inlineStr"/>
+      <c r="G106" s="2" t="inlineStr"/>
+      <c r="H106" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.0" header="0.0" footer="0.0"/>
